--- a/Resources/Steel-Pole/Pole Book STEEL_MATCHED.xlsx
+++ b/Resources/Steel-Pole/Pole Book STEEL_MATCHED.xlsx
@@ -1465,7 +1465,8 @@
 41. Amounts don't match: 905515.0 vs 15000.0
 42. Amounts don't match: 905515.0 vs 235248.0
 43. Amounts don't match: 905515.0 vs 14000.0
-44. No interunit account found in File 1 block</t>
+44. No interunit account found in File 1 block
+45. Settlement mismatch: File 1 IDs ['94976'], File 2 IDs []</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr"/>

--- a/Resources/Steel-Pole/Pole Book STEEL_MATCHED.xlsx
+++ b/Resources/Steel-Pole/Pole Book STEEL_MATCHED.xlsx
@@ -1379,133 +1379,113 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr"/>
-      <c r="B32" s="2" t="inlineStr"/>
-      <c r="C32" s="6" t="inlineStr">
+      <c r="A32" s="20" t="inlineStr">
+        <is>
+          <t>M126</t>
+        </is>
+      </c>
+      <c r="B32" s="21" t="inlineStr"/>
+      <c r="C32" s="22" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="D32" s="20" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E32" s="7" t="inlineStr">
+      <c r="E32" s="23" t="inlineStr">
         <is>
           <t>Interunit Loan A/C-Geo Textile Unit.</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr"/>
-      <c r="G32" s="1" t="inlineStr"/>
-      <c r="H32" s="9" t="inlineStr">
+      <c r="F32" s="20" t="inlineStr"/>
+      <c r="G32" s="20" t="inlineStr"/>
+      <c r="H32" s="24" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="I32" s="20" t="inlineStr">
         <is>
           <t>1357</t>
         </is>
       </c>
-      <c r="J32" s="8" t="inlineStr">
+      <c r="J32" s="25" t="inlineStr">
         <is>
           <t>905515</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr"/>
-      <c r="L32" s="1" t="inlineStr"/>
+      <c r="K32" s="20" t="inlineStr"/>
+      <c r="L32" s="20" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr"/>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Transaction types don't match (both same type: Lender)
-2. Amounts don't match: 905515.0 vs 600000.0
-3. Amounts don't match: 905515.0 vs 384803.22
-4. Amounts don't match: 905515.0 vs 700000.0
-5. Amounts don't match: 905515.0 vs 300000.0
-6. Amounts don't match: 905515.0 vs 700000.0
-7. Amounts don't match: 905515.0 vs 100000.0
-8. Amounts don't match: 905515.0 vs 5771409.6
-9. Amounts don't match: 905515.0 vs 200000.0
-10. Amounts don't match: 905515.0 vs 587020.0
-11. Amounts don't match: 905515.0 vs 2250.0
-12. Amounts don't match: 905515.0 vs 62460.0
-13. Amounts don't match: 905515.0 vs 740488.0
-14. Amounts don't match: 905515.0 vs 202621.73
-15. Amounts don't match: 905515.0 vs 42300.0
-16. Amounts don't match: 905515.0 vs 40500.0
-17. Amounts don't match: 905515.0 vs 511750.0
-18. Amounts don't match: 905515.0 vs 669595.0
-19. Amounts don't match: 905515.0 vs 66980.0
-20. Amounts don't match: 905515.0 vs 12300.0
-21. Amounts don't match: 905515.0 vs 590.0
-22. Amounts don't match: 905515.0 vs 9000.0
-23. Amounts don't match: 905515.0 vs 9600.0
-24. Amounts don't match: 905515.0 vs 128327.0
-25. Amounts don't match: 905515.0 vs 131125.0
-26. Amounts don't match: 905515.0 vs 63065.0
-27. Amounts don't match: 905515.0 vs 230000.0
-28. Amounts don't match: 905515.0 vs 293250.0
-29. Amounts don't match: 905515.0 vs 6750.0
-30. Amounts don't match: 905515.0 vs 496219.0
-31. Amounts don't match: 905515.0 vs 195820.0
-32. Amounts don't match: 905515.0 vs 15300.0
-33. Amounts don't match: 905515.0 vs 96000.0
-34. Amounts don't match: 905515.0 vs 10562.5
-35. Amounts don't match: 905515.0 vs 2700.0
-36. Amounts don't match: 905515.0 vs 26291.76
-37. Amounts don't match: 905515.0 vs 129240.0
-38. Amounts don't match: 905515.0 vs 15044.0
-39. Amounts don't match: 905515.0 vs 4967.7
-40. Amounts don't match: 905515.0 vs 8697.92
-41. Amounts don't match: 905515.0 vs 15000.0
-42. Amounts don't match: 905515.0 vs 235248.0
-43. Amounts don't match: 905515.0 vs 14000.0
-44. No interunit account found in File 1 block
-45. Settlement mismatch: File 1 IDs ['94976'], File 2 IDs []</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr"/>
-      <c r="D33" s="1" t="inlineStr"/>
-      <c r="E33" s="10" t="inlineStr">
+      <c r="A33" s="20" t="inlineStr">
+        <is>
+          <t>M126</t>
+        </is>
+      </c>
+      <c r="B33" s="21" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 905515.00
+Borrower Amount: 905515.00</t>
+        </is>
+      </c>
+      <c r="C33" s="20" t="inlineStr"/>
+      <c r="D33" s="20" t="inlineStr"/>
+      <c r="E33" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">Rectify date was 26.12.2024...............Being the amount paid to Meghna Petroleum Limited. Supply of , Invoice Number:  067, Challan Number: , Work Order Number: PBS/PO/2024/12/30648, BA Team (A), Company Unit: Concrete Pole &amp; Pile, Project Name : PBSF-G-260 (ID:949763), Work Order date: 2024-12-03, Goods Received Date: , Work Order Value: 910980.0, Total Bill Amount: 910980.0, TDS Deduction Amount: 5,465, VDS Deduction Amount: 0.0 procure-48310 this bill  Paid from STEEL unit . Bank name: 				MTB ( 4355)	_x000D_
 </t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr"/>
-      <c r="G33" s="1" t="inlineStr"/>
-      <c r="H33" s="1" t="inlineStr"/>
-      <c r="I33" s="1" t="inlineStr"/>
-      <c r="J33" s="1" t="inlineStr"/>
-      <c r="K33" s="1" t="inlineStr"/>
-      <c r="L33" s="1" t="inlineStr"/>
+      <c r="F33" s="20" t="inlineStr"/>
+      <c r="G33" s="20" t="inlineStr"/>
+      <c r="H33" s="20" t="inlineStr"/>
+      <c r="I33" s="20" t="inlineStr"/>
+      <c r="J33" s="20" t="inlineStr"/>
+      <c r="K33" s="20" t="inlineStr"/>
+      <c r="L33" s="20" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr"/>
-      <c r="B34" s="2" t="inlineStr"/>
-      <c r="C34" s="1" t="inlineStr"/>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="A34" s="20" t="inlineStr">
+        <is>
+          <t>M126</t>
+        </is>
+      </c>
+      <c r="B34" s="21" t="inlineStr"/>
+      <c r="C34" s="20" t="inlineStr"/>
+      <c r="D34" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E34" s="11" t="inlineStr">
+      <c r="E34" s="27" t="inlineStr">
         <is>
           <t>g.azam</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr"/>
-      <c r="G34" s="1" t="inlineStr"/>
-      <c r="H34" s="1" t="inlineStr"/>
-      <c r="I34" s="1" t="inlineStr"/>
-      <c r="J34" s="1" t="inlineStr"/>
-      <c r="K34" s="1" t="inlineStr"/>
-      <c r="L34" s="1" t="inlineStr"/>
+      <c r="F34" s="20" t="inlineStr"/>
+      <c r="G34" s="20" t="inlineStr"/>
+      <c r="H34" s="20" t="inlineStr"/>
+      <c r="I34" s="20" t="inlineStr"/>
+      <c r="J34" s="20" t="inlineStr"/>
+      <c r="K34" s="20" t="inlineStr"/>
+      <c r="L34" s="20" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr"/>
@@ -1633,198 +1613,198 @@
       <c r="L37" s="1" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="20" t="inlineStr">
+      <c r="A38" s="12" t="inlineStr">
         <is>
           <t>M122</t>
         </is>
       </c>
-      <c r="B38" s="21" t="inlineStr"/>
-      <c r="C38" s="22" t="inlineStr">
+      <c r="B38" s="13" t="inlineStr"/>
+      <c r="C38" s="14" t="inlineStr">
         <is>
           <t>02/Jun/2025</t>
         </is>
       </c>
-      <c r="D38" s="20" t="inlineStr">
+      <c r="D38" s="12" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E38" s="23" t="inlineStr">
+      <c r="E38" s="15" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F38" s="20" t="inlineStr"/>
-      <c r="G38" s="20" t="inlineStr"/>
-      <c r="H38" s="24" t="inlineStr">
+      <c r="F38" s="12" t="inlineStr"/>
+      <c r="G38" s="12" t="inlineStr"/>
+      <c r="H38" s="16" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I38" s="20" t="inlineStr">
+      <c r="I38" s="12" t="inlineStr">
         <is>
           <t>1364</t>
         </is>
       </c>
-      <c r="J38" s="25" t="inlineStr">
+      <c r="J38" s="17" t="inlineStr">
         <is>
           <t>18027176.54</t>
         </is>
       </c>
-      <c r="K38" s="20" t="inlineStr"/>
-      <c r="L38" s="20" t="inlineStr">
+      <c r="K38" s="12" t="inlineStr"/>
+      <c r="L38" s="12" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="20" t="inlineStr">
+      <c r="A39" s="12" t="inlineStr">
         <is>
           <t>M122</t>
         </is>
       </c>
-      <c r="B39" s="21" t="inlineStr"/>
-      <c r="C39" s="20" t="inlineStr"/>
-      <c r="D39" s="20" t="inlineStr"/>
-      <c r="E39" s="23" t="inlineStr">
+      <c r="B39" s="13" t="inlineStr"/>
+      <c r="C39" s="12" t="inlineStr"/>
+      <c r="D39" s="12" t="inlineStr"/>
+      <c r="E39" s="15" t="inlineStr">
         <is>
           <t>Interunit Loan A/C-Geo Textile Unit.</t>
         </is>
       </c>
-      <c r="F39" s="20" t="inlineStr"/>
-      <c r="G39" s="20" t="inlineStr"/>
-      <c r="H39" s="20" t="inlineStr"/>
-      <c r="I39" s="20" t="inlineStr"/>
-      <c r="J39" s="25" t="inlineStr">
+      <c r="F39" s="12" t="inlineStr"/>
+      <c r="G39" s="12" t="inlineStr"/>
+      <c r="H39" s="12" t="inlineStr"/>
+      <c r="I39" s="12" t="inlineStr"/>
+      <c r="J39" s="17" t="inlineStr">
         <is>
           <t>9706941.22</t>
         </is>
       </c>
-      <c r="K39" s="20" t="inlineStr"/>
-      <c r="L39" s="20" t="inlineStr">
+      <c r="K39" s="12" t="inlineStr"/>
+      <c r="L39" s="12" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="20" t="inlineStr">
+      <c r="A40" s="12" t="inlineStr">
         <is>
           <t>M122</t>
         </is>
       </c>
-      <c r="B40" s="21" t="inlineStr"/>
-      <c r="C40" s="20" t="inlineStr"/>
-      <c r="D40" s="20" t="inlineStr"/>
-      <c r="E40" s="23" t="inlineStr">
+      <c r="B40" s="13" t="inlineStr"/>
+      <c r="C40" s="12" t="inlineStr"/>
+      <c r="D40" s="12" t="inlineStr"/>
+      <c r="E40" s="15" t="inlineStr">
         <is>
           <t>Flactuation Gain /Loss</t>
         </is>
       </c>
-      <c r="F40" s="20" t="inlineStr"/>
-      <c r="G40" s="20" t="inlineStr"/>
-      <c r="H40" s="20" t="inlineStr"/>
-      <c r="I40" s="20" t="inlineStr"/>
-      <c r="J40" s="20" t="inlineStr"/>
-      <c r="K40" s="25" t="inlineStr">
+      <c r="F40" s="12" t="inlineStr"/>
+      <c r="G40" s="12" t="inlineStr"/>
+      <c r="H40" s="12" t="inlineStr"/>
+      <c r="I40" s="12" t="inlineStr"/>
+      <c r="J40" s="12" t="inlineStr"/>
+      <c r="K40" s="17" t="inlineStr">
         <is>
           <t>614549.95</t>
         </is>
       </c>
-      <c r="L40" s="20" t="inlineStr">
+      <c r="L40" s="12" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="20" t="inlineStr">
+      <c r="A41" s="12" t="inlineStr">
         <is>
           <t>M122</t>
         </is>
       </c>
-      <c r="B41" s="21" t="inlineStr"/>
-      <c r="C41" s="20" t="inlineStr"/>
-      <c r="D41" s="20" t="inlineStr"/>
-      <c r="E41" s="23" t="inlineStr">
+      <c r="B41" s="13" t="inlineStr"/>
+      <c r="C41" s="12" t="inlineStr"/>
+      <c r="D41" s="12" t="inlineStr"/>
+      <c r="E41" s="15" t="inlineStr">
         <is>
           <t>AR-BREB/DMD-SPC-G-24-Lot-1-WB-Export</t>
         </is>
       </c>
-      <c r="F41" s="20" t="inlineStr"/>
-      <c r="G41" s="20" t="inlineStr"/>
-      <c r="H41" s="20" t="inlineStr"/>
-      <c r="I41" s="20" t="inlineStr"/>
-      <c r="J41" s="20" t="inlineStr"/>
-      <c r="K41" s="25" t="inlineStr">
+      <c r="F41" s="12" t="inlineStr"/>
+      <c r="G41" s="12" t="inlineStr"/>
+      <c r="H41" s="12" t="inlineStr"/>
+      <c r="I41" s="12" t="inlineStr"/>
+      <c r="J41" s="12" t="inlineStr"/>
+      <c r="K41" s="17" t="inlineStr">
         <is>
           <t>27119567.81</t>
         </is>
       </c>
-      <c r="L41" s="20" t="inlineStr">
+      <c r="L41" s="12" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="20" t="inlineStr">
+      <c r="A42" s="12" t="inlineStr">
         <is>
           <t>M122</t>
         </is>
       </c>
-      <c r="B42" s="21" t="inlineStr">
+      <c r="B42" s="13" t="inlineStr">
         <is>
           <t>USD Match: $147,401.28
 Lender Amount: 18027176.54
 Borrower Amount: 18027176.54</t>
         </is>
       </c>
-      <c r="C42" s="20" t="inlineStr"/>
-      <c r="D42" s="20" t="inlineStr"/>
-      <c r="E42" s="26" t="inlineStr">
+      <c r="C42" s="12" t="inlineStr"/>
+      <c r="D42" s="12" t="inlineStr"/>
+      <c r="E42" s="18" t="inlineStr">
         <is>
           <t>Received Voucher: Amounts received agt PO number : MCEP/BREB/DMD-SPC-G-24-Lot-1/2023-2024-Part-1-WB, remark: Total Bill- 226851.20 usd. CIL Bill- Part1- 193819.20 usd+ Part2- 33032 usd) Total received- 226771.20 (Part1- 193819.20 usd+ Part2- 32952 usd). Bank charge -80 Usd.,  $147,401.28 @ Tk.122.30/-, Exchange Rate-122.30/-, Gain-(122.30-119.59)=Tk. 2.71/-</t>
         </is>
       </c>
-      <c r="F42" s="20" t="inlineStr"/>
-      <c r="G42" s="20" t="inlineStr"/>
-      <c r="H42" s="20" t="inlineStr"/>
-      <c r="I42" s="20" t="inlineStr"/>
-      <c r="J42" s="20" t="inlineStr"/>
-      <c r="K42" s="20" t="inlineStr"/>
-      <c r="L42" s="20" t="inlineStr">
+      <c r="F42" s="12" t="inlineStr"/>
+      <c r="G42" s="12" t="inlineStr"/>
+      <c r="H42" s="12" t="inlineStr"/>
+      <c r="I42" s="12" t="inlineStr"/>
+      <c r="J42" s="12" t="inlineStr"/>
+      <c r="K42" s="12" t="inlineStr"/>
+      <c r="L42" s="12" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="20" t="inlineStr">
+      <c r="A43" s="12" t="inlineStr">
         <is>
           <t>M122</t>
         </is>
       </c>
-      <c r="B43" s="21" t="inlineStr"/>
-      <c r="C43" s="20" t="inlineStr"/>
-      <c r="D43" s="20" t="inlineStr">
+      <c r="B43" s="13" t="inlineStr"/>
+      <c r="C43" s="12" t="inlineStr"/>
+      <c r="D43" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E43" s="27" t="inlineStr">
+      <c r="E43" s="19" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F43" s="20" t="inlineStr"/>
-      <c r="G43" s="20" t="inlineStr"/>
-      <c r="H43" s="20" t="inlineStr"/>
-      <c r="I43" s="20" t="inlineStr"/>
-      <c r="J43" s="20" t="inlineStr"/>
-      <c r="K43" s="20" t="inlineStr"/>
-      <c r="L43" s="20" t="inlineStr">
+      <c r="F43" s="12" t="inlineStr"/>
+      <c r="G43" s="12" t="inlineStr"/>
+      <c r="H43" s="12" t="inlineStr"/>
+      <c r="I43" s="12" t="inlineStr"/>
+      <c r="J43" s="12" t="inlineStr"/>
+      <c r="K43" s="12" t="inlineStr"/>
+      <c r="L43" s="12" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
@@ -3329,325 +3309,325 @@
       <c r="L82" s="1" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="12" t="inlineStr">
+      <c r="A83" s="20" t="inlineStr">
         <is>
           <t>M073</t>
         </is>
       </c>
-      <c r="B83" s="13" t="inlineStr"/>
-      <c r="C83" s="14" t="inlineStr">
+      <c r="B83" s="21" t="inlineStr"/>
+      <c r="C83" s="22" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D83" s="12" t="inlineStr">
+      <c r="D83" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E83" s="15" t="inlineStr">
+      <c r="E83" s="23" t="inlineStr">
         <is>
           <t>AP-Mukta Engineering Works</t>
         </is>
       </c>
-      <c r="F83" s="12" t="inlineStr"/>
-      <c r="G83" s="12" t="inlineStr"/>
-      <c r="H83" s="16" t="inlineStr">
+      <c r="F83" s="20" t="inlineStr"/>
+      <c r="G83" s="20" t="inlineStr"/>
+      <c r="H83" s="24" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I83" s="12" t="inlineStr">
+      <c r="I83" s="20" t="inlineStr">
         <is>
           <t>1383</t>
         </is>
       </c>
-      <c r="J83" s="12" t="inlineStr"/>
-      <c r="K83" s="17" t="inlineStr">
+      <c r="J83" s="20" t="inlineStr"/>
+      <c r="K83" s="25" t="inlineStr">
         <is>
           <t>600000</t>
         </is>
       </c>
-      <c r="L83" s="12" t="inlineStr">
+      <c r="L83" s="20" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="12" t="inlineStr">
+      <c r="A84" s="20" t="inlineStr">
         <is>
           <t>M073</t>
         </is>
       </c>
-      <c r="B84" s="13" t="inlineStr">
+      <c r="B84" s="21" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 600000.00
 Borrower Amount: 600000.00</t>
         </is>
       </c>
-      <c r="C84" s="12" t="inlineStr"/>
-      <c r="D84" s="12" t="inlineStr"/>
-      <c r="E84" s="18" t="inlineStr">
+      <c r="C84" s="20" t="inlineStr"/>
+      <c r="D84" s="20" t="inlineStr"/>
+      <c r="E84" s="26" t="inlineStr">
         <is>
           <t>Being the amount paid to M/S. Mukta Engineering Works . Supply of , Invoice Number:  005, Challan Number: 005, Work Order Number: PBS/PO/2024/8/29211, BA Team (A), Company Unit: Concrete Pole &amp; Pile, Project Name : PBSF-G-260 (ID:949763), Work Order date: 2024-08-30, Goods Received Date: 2024-12-04, Work Order Value: 853990.0, Total Bill Amount: 797190.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0 Paid from-Steel-Midland-0331</t>
         </is>
       </c>
-      <c r="F84" s="12" t="inlineStr"/>
-      <c r="G84" s="12" t="inlineStr"/>
-      <c r="H84" s="12" t="inlineStr"/>
-      <c r="I84" s="12" t="inlineStr"/>
-      <c r="J84" s="12" t="inlineStr"/>
-      <c r="K84" s="12" t="inlineStr"/>
-      <c r="L84" s="12" t="inlineStr">
+      <c r="F84" s="20" t="inlineStr"/>
+      <c r="G84" s="20" t="inlineStr"/>
+      <c r="H84" s="20" t="inlineStr"/>
+      <c r="I84" s="20" t="inlineStr"/>
+      <c r="J84" s="20" t="inlineStr"/>
+      <c r="K84" s="20" t="inlineStr"/>
+      <c r="L84" s="20" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="12" t="inlineStr">
+      <c r="A85" s="20" t="inlineStr">
         <is>
           <t>M073</t>
         </is>
       </c>
-      <c r="B85" s="13" t="inlineStr"/>
-      <c r="C85" s="12" t="inlineStr"/>
-      <c r="D85" s="12" t="inlineStr">
+      <c r="B85" s="21" t="inlineStr"/>
+      <c r="C85" s="20" t="inlineStr"/>
+      <c r="D85" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E85" s="19" t="inlineStr">
+      <c r="E85" s="27" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F85" s="12" t="inlineStr"/>
-      <c r="G85" s="12" t="inlineStr"/>
-      <c r="H85" s="12" t="inlineStr"/>
-      <c r="I85" s="12" t="inlineStr"/>
-      <c r="J85" s="12" t="inlineStr"/>
-      <c r="K85" s="12" t="inlineStr"/>
-      <c r="L85" s="12" t="inlineStr">
+      <c r="F85" s="20" t="inlineStr"/>
+      <c r="G85" s="20" t="inlineStr"/>
+      <c r="H85" s="20" t="inlineStr"/>
+      <c r="I85" s="20" t="inlineStr"/>
+      <c r="J85" s="20" t="inlineStr"/>
+      <c r="K85" s="20" t="inlineStr"/>
+      <c r="L85" s="20" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="20" t="inlineStr">
+      <c r="A86" s="12" t="inlineStr">
         <is>
           <t>M001</t>
         </is>
       </c>
-      <c r="B86" s="21" t="inlineStr"/>
-      <c r="C86" s="22" t="inlineStr">
+      <c r="B86" s="13" t="inlineStr"/>
+      <c r="C86" s="14" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D86" s="20" t="inlineStr">
+      <c r="D86" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E86" s="23" t="inlineStr">
+      <c r="E86" s="15" t="inlineStr">
         <is>
           <t>AP-Alif Enterprise</t>
         </is>
       </c>
-      <c r="F86" s="20" t="inlineStr"/>
-      <c r="G86" s="20" t="inlineStr"/>
-      <c r="H86" s="24" t="inlineStr">
+      <c r="F86" s="12" t="inlineStr"/>
+      <c r="G86" s="12" t="inlineStr"/>
+      <c r="H86" s="16" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I86" s="20" t="inlineStr">
+      <c r="I86" s="12" t="inlineStr">
         <is>
           <t>1384</t>
         </is>
       </c>
-      <c r="J86" s="20" t="inlineStr"/>
-      <c r="K86" s="25" t="inlineStr">
+      <c r="J86" s="12" t="inlineStr"/>
+      <c r="K86" s="17" t="inlineStr">
         <is>
           <t>300000</t>
         </is>
       </c>
-      <c r="L86" s="20" t="inlineStr">
+      <c r="L86" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="20" t="inlineStr">
+      <c r="A87" s="12" t="inlineStr">
         <is>
           <t>M001</t>
         </is>
       </c>
-      <c r="B87" s="21" t="inlineStr">
+      <c r="B87" s="13" t="inlineStr">
         <is>
           <t>PO Match: DMD/PO/2024/12/31413
 Lender Amount: 300000.00
 Borrower Amount: 300000.00</t>
         </is>
       </c>
-      <c r="C87" s="20" t="inlineStr"/>
-      <c r="D87" s="20" t="inlineStr"/>
-      <c r="E87" s="26" t="inlineStr">
+      <c r="C87" s="12" t="inlineStr"/>
+      <c r="D87" s="12" t="inlineStr"/>
+      <c r="E87" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Being the amount paid to M/S. Alif  Enterprise. Supply of , Invoice Number:  214, Challan Number: 011,012,013,015,005,007,008,009,010.,014, 016, 017,020, Work Order Number: DMD/PO/2024/12/31413, BA Team (A), Company Unit: Concrete Pole &amp; Pile, Project Name : DMD-SPC-G-24-Lot-1-Part-2-WB, Work Order date: 2024-12-30, Goods Received Date: 2025-01-18,2025-01-11,2025-01-30, Work Order Value: 1104000.0, Total Bill Amount: 300000.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0  P-58272_x000D_
 </t>
         </is>
       </c>
-      <c r="F87" s="20" t="inlineStr"/>
-      <c r="G87" s="20" t="inlineStr"/>
-      <c r="H87" s="20" t="inlineStr"/>
-      <c r="I87" s="20" t="inlineStr"/>
-      <c r="J87" s="20" t="inlineStr"/>
-      <c r="K87" s="20" t="inlineStr"/>
-      <c r="L87" s="20" t="inlineStr">
+      <c r="F87" s="12" t="inlineStr"/>
+      <c r="G87" s="12" t="inlineStr"/>
+      <c r="H87" s="12" t="inlineStr"/>
+      <c r="I87" s="12" t="inlineStr"/>
+      <c r="J87" s="12" t="inlineStr"/>
+      <c r="K87" s="12" t="inlineStr"/>
+      <c r="L87" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="20" t="inlineStr">
+      <c r="A88" s="12" t="inlineStr">
         <is>
           <t>M001</t>
         </is>
       </c>
-      <c r="B88" s="21" t="inlineStr"/>
-      <c r="C88" s="20" t="inlineStr"/>
-      <c r="D88" s="20" t="inlineStr">
+      <c r="B88" s="13" t="inlineStr"/>
+      <c r="C88" s="12" t="inlineStr"/>
+      <c r="D88" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E88" s="27" t="inlineStr">
+      <c r="E88" s="19" t="inlineStr">
         <is>
           <t>mahbub.alam</t>
         </is>
       </c>
-      <c r="F88" s="20" t="inlineStr"/>
-      <c r="G88" s="20" t="inlineStr"/>
-      <c r="H88" s="20" t="inlineStr"/>
-      <c r="I88" s="20" t="inlineStr"/>
-      <c r="J88" s="20" t="inlineStr"/>
-      <c r="K88" s="20" t="inlineStr"/>
-      <c r="L88" s="20" t="inlineStr">
+      <c r="F88" s="12" t="inlineStr"/>
+      <c r="G88" s="12" t="inlineStr"/>
+      <c r="H88" s="12" t="inlineStr"/>
+      <c r="I88" s="12" t="inlineStr"/>
+      <c r="J88" s="12" t="inlineStr"/>
+      <c r="K88" s="12" t="inlineStr"/>
+      <c r="L88" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="12" t="inlineStr">
+      <c r="A89" s="20" t="inlineStr">
         <is>
           <t>M075</t>
         </is>
       </c>
-      <c r="B89" s="13" t="inlineStr"/>
-      <c r="C89" s="14" t="inlineStr">
+      <c r="B89" s="21" t="inlineStr"/>
+      <c r="C89" s="22" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D89" s="12" t="inlineStr">
+      <c r="D89" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E89" s="15" t="inlineStr">
+      <c r="E89" s="23" t="inlineStr">
         <is>
           <t>AP-Crown Cement PLC</t>
         </is>
       </c>
-      <c r="F89" s="12" t="inlineStr"/>
-      <c r="G89" s="12" t="inlineStr"/>
-      <c r="H89" s="16" t="inlineStr">
+      <c r="F89" s="20" t="inlineStr"/>
+      <c r="G89" s="20" t="inlineStr"/>
+      <c r="H89" s="24" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I89" s="12" t="inlineStr">
+      <c r="I89" s="20" t="inlineStr">
         <is>
           <t>1385</t>
         </is>
       </c>
-      <c r="J89" s="12" t="inlineStr"/>
-      <c r="K89" s="17" t="inlineStr">
+      <c r="J89" s="20" t="inlineStr"/>
+      <c r="K89" s="25" t="inlineStr">
         <is>
           <t>700000</t>
         </is>
       </c>
-      <c r="L89" s="12" t="inlineStr">
+      <c r="L89" s="20" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="12" t="inlineStr">
+      <c r="A90" s="20" t="inlineStr">
         <is>
           <t>M075</t>
         </is>
       </c>
-      <c r="B90" s="13" t="inlineStr">
+      <c r="B90" s="21" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 700000.00
 Borrower Amount: 700000.00</t>
         </is>
       </c>
-      <c r="C90" s="12" t="inlineStr"/>
-      <c r="D90" s="12" t="inlineStr"/>
-      <c r="E90" s="18" t="inlineStr">
+      <c r="C90" s="20" t="inlineStr"/>
+      <c r="D90" s="20" t="inlineStr"/>
+      <c r="E90" s="26" t="inlineStr">
         <is>
           <t>Being the amount paid to Crown Cement PLC. Supply of , Invoice Number:  147, Challan Number: 8002103646, 8002103650,8002107843, 8002107850,8002103872, 8002103674,8002112659, 8002112833, 8002112835, 8002112911, 8002112961,,8002116901, 8002116920,8002121931,8002107848, Work Order Number: PBS/PO/2024/11/30298, BA Team (A), Company Unit: Concrete Pole &amp; Pile, Project Name : PBSF-G-260 (ID:949763), Work Order date: 2024-11-07, Goods Received Date: 2024-11-21,2024-11-28,2024-12-05,2024-12-02, Work Order Value: 3120000.0, Total Bill Amount: 2777895.84, TDS Deduction Amount: 56691.75, VDS Deduction Amount: 0.0 Paid from-Steel-Midland-0331</t>
         </is>
       </c>
-      <c r="F90" s="12" t="inlineStr"/>
-      <c r="G90" s="12" t="inlineStr"/>
-      <c r="H90" s="12" t="inlineStr"/>
-      <c r="I90" s="12" t="inlineStr"/>
-      <c r="J90" s="12" t="inlineStr"/>
-      <c r="K90" s="12" t="inlineStr"/>
-      <c r="L90" s="12" t="inlineStr">
+      <c r="F90" s="20" t="inlineStr"/>
+      <c r="G90" s="20" t="inlineStr"/>
+      <c r="H90" s="20" t="inlineStr"/>
+      <c r="I90" s="20" t="inlineStr"/>
+      <c r="J90" s="20" t="inlineStr"/>
+      <c r="K90" s="20" t="inlineStr"/>
+      <c r="L90" s="20" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="12" t="inlineStr">
+      <c r="A91" s="20" t="inlineStr">
         <is>
           <t>M075</t>
         </is>
       </c>
-      <c r="B91" s="13" t="inlineStr"/>
-      <c r="C91" s="12" t="inlineStr"/>
-      <c r="D91" s="12" t="inlineStr">
+      <c r="B91" s="21" t="inlineStr"/>
+      <c r="C91" s="20" t="inlineStr"/>
+      <c r="D91" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E91" s="19" t="inlineStr">
+      <c r="E91" s="27" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F91" s="12" t="inlineStr"/>
-      <c r="G91" s="12" t="inlineStr"/>
-      <c r="H91" s="12" t="inlineStr"/>
-      <c r="I91" s="12" t="inlineStr"/>
-      <c r="J91" s="12" t="inlineStr"/>
-      <c r="K91" s="12" t="inlineStr"/>
-      <c r="L91" s="12" t="inlineStr">
+      <c r="F91" s="20" t="inlineStr"/>
+      <c r="G91" s="20" t="inlineStr"/>
+      <c r="H91" s="20" t="inlineStr"/>
+      <c r="I91" s="20" t="inlineStr"/>
+      <c r="J91" s="20" t="inlineStr"/>
+      <c r="K91" s="20" t="inlineStr"/>
+      <c r="L91" s="20" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
@@ -4529,108 +4509,108 @@
       <c r="L112" s="1" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" s="20" t="inlineStr">
+      <c r="A113" s="12" t="inlineStr">
         <is>
           <t>M076</t>
         </is>
       </c>
-      <c r="B113" s="21" t="inlineStr"/>
-      <c r="C113" s="22" t="inlineStr">
+      <c r="B113" s="13" t="inlineStr"/>
+      <c r="C113" s="14" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D113" s="20" t="inlineStr">
+      <c r="D113" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E113" s="23" t="inlineStr">
+      <c r="E113" s="15" t="inlineStr">
         <is>
           <t>AP-BSRM Wires Limited</t>
         </is>
       </c>
-      <c r="F113" s="20" t="inlineStr"/>
-      <c r="G113" s="20" t="inlineStr"/>
-      <c r="H113" s="24" t="inlineStr">
+      <c r="F113" s="12" t="inlineStr"/>
+      <c r="G113" s="12" t="inlineStr"/>
+      <c r="H113" s="16" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I113" s="20" t="inlineStr">
+      <c r="I113" s="12" t="inlineStr">
         <is>
           <t>1393</t>
         </is>
       </c>
-      <c r="J113" s="20" t="inlineStr"/>
-      <c r="K113" s="25" t="inlineStr">
+      <c r="J113" s="12" t="inlineStr"/>
+      <c r="K113" s="17" t="inlineStr">
         <is>
           <t>100000</t>
         </is>
       </c>
-      <c r="L113" s="20" t="inlineStr">
+      <c r="L113" s="12" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="20" t="inlineStr">
+      <c r="A114" s="12" t="inlineStr">
         <is>
           <t>M076</t>
         </is>
       </c>
-      <c r="B114" s="21" t="inlineStr">
+      <c r="B114" s="13" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 100000.00
 Borrower Amount: 100000.00</t>
         </is>
       </c>
-      <c r="C114" s="20" t="inlineStr"/>
-      <c r="D114" s="20" t="inlineStr"/>
-      <c r="E114" s="26" t="inlineStr">
+      <c r="C114" s="12" t="inlineStr"/>
+      <c r="D114" s="12" t="inlineStr"/>
+      <c r="E114" s="18" t="inlineStr">
         <is>
           <t>Being the amount paid to BSRM Wires Limited. Supply of , Invoice Number:  424001088, Challan Number: 3060537, Work Order Number: DES/PO/2024/11/30582, BA Team (A), Company Unit: Concrete Pole &amp; Pile, Project Name : DESCO SPC Pole (GD-4), Work Order date: 2024-11-27, Goods Received Date: 2024-12-03, Work Order Value: 204668.0, Total Bill Amount: 199329.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0 paid from -Steel-Midland-0331</t>
         </is>
       </c>
-      <c r="F114" s="20" t="inlineStr"/>
-      <c r="G114" s="20" t="inlineStr"/>
-      <c r="H114" s="20" t="inlineStr"/>
-      <c r="I114" s="20" t="inlineStr"/>
-      <c r="J114" s="20" t="inlineStr"/>
-      <c r="K114" s="20" t="inlineStr"/>
-      <c r="L114" s="20" t="inlineStr">
+      <c r="F114" s="12" t="inlineStr"/>
+      <c r="G114" s="12" t="inlineStr"/>
+      <c r="H114" s="12" t="inlineStr"/>
+      <c r="I114" s="12" t="inlineStr"/>
+      <c r="J114" s="12" t="inlineStr"/>
+      <c r="K114" s="12" t="inlineStr"/>
+      <c r="L114" s="12" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="20" t="inlineStr">
+      <c r="A115" s="12" t="inlineStr">
         <is>
           <t>M076</t>
         </is>
       </c>
-      <c r="B115" s="21" t="inlineStr"/>
-      <c r="C115" s="20" t="inlineStr"/>
-      <c r="D115" s="20" t="inlineStr">
+      <c r="B115" s="13" t="inlineStr"/>
+      <c r="C115" s="12" t="inlineStr"/>
+      <c r="D115" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E115" s="27" t="inlineStr">
+      <c r="E115" s="19" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F115" s="20" t="inlineStr"/>
-      <c r="G115" s="20" t="inlineStr"/>
-      <c r="H115" s="20" t="inlineStr"/>
-      <c r="I115" s="20" t="inlineStr"/>
-      <c r="J115" s="20" t="inlineStr"/>
-      <c r="K115" s="20" t="inlineStr"/>
-      <c r="L115" s="20" t="inlineStr">
+      <c r="F115" s="12" t="inlineStr"/>
+      <c r="G115" s="12" t="inlineStr"/>
+      <c r="H115" s="12" t="inlineStr"/>
+      <c r="I115" s="12" t="inlineStr"/>
+      <c r="J115" s="12" t="inlineStr"/>
+      <c r="K115" s="12" t="inlineStr"/>
+      <c r="L115" s="12" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
@@ -8262,108 +8242,108 @@
       <c r="L202" s="1" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" s="12" t="inlineStr">
+      <c r="A203" s="20" t="inlineStr">
         <is>
           <t>M077</t>
         </is>
       </c>
-      <c r="B203" s="13" t="inlineStr"/>
-      <c r="C203" s="14" t="inlineStr">
+      <c r="B203" s="21" t="inlineStr"/>
+      <c r="C203" s="22" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D203" s="12" t="inlineStr">
+      <c r="D203" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E203" s="15" t="inlineStr">
+      <c r="E203" s="23" t="inlineStr">
         <is>
           <t>AP-Akij Cement Company Ltd.</t>
         </is>
       </c>
-      <c r="F203" s="12" t="inlineStr"/>
-      <c r="G203" s="12" t="inlineStr"/>
-      <c r="H203" s="16" t="inlineStr">
+      <c r="F203" s="20" t="inlineStr"/>
+      <c r="G203" s="20" t="inlineStr"/>
+      <c r="H203" s="24" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I203" s="12" t="inlineStr">
+      <c r="I203" s="20" t="inlineStr">
         <is>
           <t>1423</t>
         </is>
       </c>
-      <c r="J203" s="12" t="inlineStr"/>
-      <c r="K203" s="17" t="inlineStr">
+      <c r="J203" s="20" t="inlineStr"/>
+      <c r="K203" s="25" t="inlineStr">
         <is>
           <t>700000</t>
         </is>
       </c>
-      <c r="L203" s="12" t="inlineStr">
+      <c r="L203" s="20" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="12" t="inlineStr">
+      <c r="A204" s="20" t="inlineStr">
         <is>
           <t>M077</t>
         </is>
       </c>
-      <c r="B204" s="13" t="inlineStr">
+      <c r="B204" s="21" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 700000.00
 Borrower Amount: 700000.00</t>
         </is>
       </c>
-      <c r="C204" s="12" t="inlineStr"/>
-      <c r="D204" s="12" t="inlineStr"/>
-      <c r="E204" s="18" t="inlineStr">
+      <c r="C204" s="20" t="inlineStr"/>
+      <c r="D204" s="20" t="inlineStr"/>
+      <c r="E204" s="26" t="inlineStr">
         <is>
           <t>Being the amount paid to Akij Cement Company Ltd.. Supply of , Invoice Number:  NOV24-14 (Bag), Challan Number: DC01020247652,DC01020246583, DC01020246584,DC01020247653, DC01020247654, Work Order Number: G24/PO/2024/9/29253, BA Team (A), Company Unit: Concrete Pole &amp; Pile, Project Name : WD1: LOT-1; MCEP/BREB/DMD SPC-G-24, Lot-1, Work Order date: 2024-09-03, Goods Received Date: 2024-11-05, Work Order Value: 5400000.0, Total Bill Amount: 873603.36, TDS Deduction Amount: 17828.64, VDS Deduction Amount: 0.0 Paid from Steel-Mid land-0331</t>
         </is>
       </c>
-      <c r="F204" s="12" t="inlineStr"/>
-      <c r="G204" s="12" t="inlineStr"/>
-      <c r="H204" s="12" t="inlineStr"/>
-      <c r="I204" s="12" t="inlineStr"/>
-      <c r="J204" s="12" t="inlineStr"/>
-      <c r="K204" s="12" t="inlineStr"/>
-      <c r="L204" s="12" t="inlineStr">
+      <c r="F204" s="20" t="inlineStr"/>
+      <c r="G204" s="20" t="inlineStr"/>
+      <c r="H204" s="20" t="inlineStr"/>
+      <c r="I204" s="20" t="inlineStr"/>
+      <c r="J204" s="20" t="inlineStr"/>
+      <c r="K204" s="20" t="inlineStr"/>
+      <c r="L204" s="20" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="12" t="inlineStr">
+      <c r="A205" s="20" t="inlineStr">
         <is>
           <t>M077</t>
         </is>
       </c>
-      <c r="B205" s="13" t="inlineStr"/>
-      <c r="C205" s="12" t="inlineStr"/>
-      <c r="D205" s="12" t="inlineStr">
+      <c r="B205" s="21" t="inlineStr"/>
+      <c r="C205" s="20" t="inlineStr"/>
+      <c r="D205" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E205" s="19" t="inlineStr">
+      <c r="E205" s="27" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F205" s="12" t="inlineStr"/>
-      <c r="G205" s="12" t="inlineStr"/>
-      <c r="H205" s="12" t="inlineStr"/>
-      <c r="I205" s="12" t="inlineStr"/>
-      <c r="J205" s="12" t="inlineStr"/>
-      <c r="K205" s="12" t="inlineStr"/>
-      <c r="L205" s="12" t="inlineStr">
+      <c r="F205" s="20" t="inlineStr"/>
+      <c r="G205" s="20" t="inlineStr"/>
+      <c r="H205" s="20" t="inlineStr"/>
+      <c r="I205" s="20" t="inlineStr"/>
+      <c r="J205" s="20" t="inlineStr"/>
+      <c r="K205" s="20" t="inlineStr"/>
+      <c r="L205" s="20" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
@@ -8629,838 +8609,910 @@
       <c r="L213" s="1" t="inlineStr"/>
     </row>
     <row r="214">
-      <c r="A214" s="20" t="inlineStr">
+      <c r="A214" s="12" t="inlineStr">
         <is>
           <t>M078</t>
         </is>
       </c>
-      <c r="B214" s="21" t="inlineStr"/>
-      <c r="C214" s="22" t="inlineStr">
+      <c r="B214" s="13" t="inlineStr"/>
+      <c r="C214" s="14" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D214" s="20" t="inlineStr">
+      <c r="D214" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E214" s="23" t="inlineStr">
+      <c r="E214" s="15" t="inlineStr">
         <is>
           <t>AP-M/S Sweet Enterprise</t>
         </is>
       </c>
-      <c r="F214" s="20" t="inlineStr"/>
-      <c r="G214" s="20" t="inlineStr"/>
-      <c r="H214" s="24" t="inlineStr">
+      <c r="F214" s="12" t="inlineStr"/>
+      <c r="G214" s="12" t="inlineStr"/>
+      <c r="H214" s="16" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I214" s="20" t="inlineStr">
+      <c r="I214" s="12" t="inlineStr">
         <is>
           <t>1428</t>
         </is>
       </c>
-      <c r="J214" s="20" t="inlineStr"/>
-      <c r="K214" s="25" t="inlineStr">
+      <c r="J214" s="12" t="inlineStr"/>
+      <c r="K214" s="17" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="L214" s="20" t="inlineStr">
+      <c r="L214" s="12" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="20" t="inlineStr">
+      <c r="A215" s="12" t="inlineStr">
         <is>
           <t>M078</t>
         </is>
       </c>
-      <c r="B215" s="21" t="inlineStr">
+      <c r="B215" s="13" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 200000.00
 Borrower Amount: 200000.00</t>
         </is>
       </c>
-      <c r="C215" s="20" t="inlineStr"/>
-      <c r="D215" s="20" t="inlineStr"/>
-      <c r="E215" s="26" t="inlineStr">
+      <c r="C215" s="12" t="inlineStr"/>
+      <c r="D215" s="12" t="inlineStr"/>
+      <c r="E215" s="18" t="inlineStr">
         <is>
           <t>Being the amount paid to M/S. Sweet Enterprise. Supply of , Invoice Number:  053, Challan Number: 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757,1741, Work Order Number: PBS/PO/2024/10/29823, BA Team (A), Company Unit: Concrete Pole &amp; Pile, Project Name : PBSF-G-260 (ID:949763), Work Order date: 2024-10-03, Goods Received Date: 2024-10-12, Work Order Value: 1800000.0, Total Bill Amount: 703890.0, TDS Deduction Amount: 0.0, VDS Deduction Amount: 0.0 paid from Steel-Midland-0331</t>
         </is>
       </c>
-      <c r="F215" s="20" t="inlineStr"/>
-      <c r="G215" s="20" t="inlineStr"/>
-      <c r="H215" s="20" t="inlineStr"/>
-      <c r="I215" s="20" t="inlineStr"/>
-      <c r="J215" s="20" t="inlineStr"/>
-      <c r="K215" s="20" t="inlineStr"/>
-      <c r="L215" s="20" t="inlineStr">
+      <c r="F215" s="12" t="inlineStr"/>
+      <c r="G215" s="12" t="inlineStr"/>
+      <c r="H215" s="12" t="inlineStr"/>
+      <c r="I215" s="12" t="inlineStr"/>
+      <c r="J215" s="12" t="inlineStr"/>
+      <c r="K215" s="12" t="inlineStr"/>
+      <c r="L215" s="12" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="20" t="inlineStr">
+      <c r="A216" s="12" t="inlineStr">
         <is>
           <t>M078</t>
         </is>
       </c>
-      <c r="B216" s="21" t="inlineStr"/>
-      <c r="C216" s="20" t="inlineStr"/>
-      <c r="D216" s="20" t="inlineStr">
+      <c r="B216" s="13" t="inlineStr"/>
+      <c r="C216" s="12" t="inlineStr"/>
+      <c r="D216" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E216" s="27" t="inlineStr">
+      <c r="E216" s="19" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F216" s="20" t="inlineStr"/>
-      <c r="G216" s="20" t="inlineStr"/>
-      <c r="H216" s="20" t="inlineStr"/>
-      <c r="I216" s="20" t="inlineStr"/>
-      <c r="J216" s="20" t="inlineStr"/>
-      <c r="K216" s="20" t="inlineStr"/>
-      <c r="L216" s="20" t="inlineStr">
+      <c r="F216" s="12" t="inlineStr"/>
+      <c r="G216" s="12" t="inlineStr"/>
+      <c r="H216" s="12" t="inlineStr"/>
+      <c r="I216" s="12" t="inlineStr"/>
+      <c r="J216" s="12" t="inlineStr"/>
+      <c r="K216" s="12" t="inlineStr"/>
+      <c r="L216" s="12" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="12" t="inlineStr">
+      <c r="A217" s="20" t="inlineStr">
         <is>
           <t>M123</t>
         </is>
       </c>
-      <c r="B217" s="13" t="inlineStr"/>
-      <c r="C217" s="14" t="inlineStr">
+      <c r="B217" s="21" t="inlineStr"/>
+      <c r="C217" s="22" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D217" s="12" t="inlineStr">
+      <c r="D217" s="20" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E217" s="15" t="inlineStr">
+      <c r="E217" s="23" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F217" s="12" t="inlineStr"/>
-      <c r="G217" s="12" t="inlineStr"/>
-      <c r="H217" s="16" t="inlineStr">
+      <c r="F217" s="20" t="inlineStr"/>
+      <c r="G217" s="20" t="inlineStr"/>
+      <c r="H217" s="24" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I217" s="12" t="inlineStr">
+      <c r="I217" s="20" t="inlineStr">
         <is>
           <t>1429</t>
         </is>
       </c>
-      <c r="J217" s="17" t="inlineStr">
+      <c r="J217" s="25" t="inlineStr">
         <is>
           <t>41625247.63</t>
         </is>
       </c>
-      <c r="K217" s="12" t="inlineStr"/>
-      <c r="L217" s="12" t="inlineStr">
+      <c r="K217" s="20" t="inlineStr"/>
+      <c r="L217" s="20" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="12" t="inlineStr">
+      <c r="A218" s="20" t="inlineStr">
         <is>
           <t>M123</t>
         </is>
       </c>
-      <c r="B218" s="13" t="inlineStr"/>
-      <c r="C218" s="12" t="inlineStr"/>
-      <c r="D218" s="12" t="inlineStr"/>
-      <c r="E218" s="15" t="inlineStr">
+      <c r="B218" s="21" t="inlineStr"/>
+      <c r="C218" s="20" t="inlineStr"/>
+      <c r="D218" s="20" t="inlineStr"/>
+      <c r="E218" s="23" t="inlineStr">
         <is>
           <t>Interunit Loan A/C-Geo Textile Unit.</t>
         </is>
       </c>
-      <c r="F218" s="12" t="inlineStr"/>
-      <c r="G218" s="12" t="inlineStr"/>
-      <c r="H218" s="12" t="inlineStr"/>
-      <c r="I218" s="12" t="inlineStr"/>
-      <c r="J218" s="17" t="inlineStr">
+      <c r="F218" s="20" t="inlineStr"/>
+      <c r="G218" s="20" t="inlineStr"/>
+      <c r="H218" s="20" t="inlineStr"/>
+      <c r="I218" s="20" t="inlineStr"/>
+      <c r="J218" s="25" t="inlineStr">
         <is>
           <t>54393012.69</t>
         </is>
       </c>
-      <c r="K218" s="12" t="inlineStr"/>
-      <c r="L218" s="12" t="inlineStr">
+      <c r="K218" s="20" t="inlineStr"/>
+      <c r="L218" s="20" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="12" t="inlineStr">
+      <c r="A219" s="20" t="inlineStr">
         <is>
           <t>M123</t>
         </is>
       </c>
-      <c r="B219" s="13" t="inlineStr"/>
-      <c r="C219" s="12" t="inlineStr"/>
-      <c r="D219" s="12" t="inlineStr"/>
-      <c r="E219" s="15" t="inlineStr">
+      <c r="B219" s="21" t="inlineStr"/>
+      <c r="C219" s="20" t="inlineStr"/>
+      <c r="D219" s="20" t="inlineStr"/>
+      <c r="E219" s="23" t="inlineStr">
         <is>
           <t>Interunit Loan A/C-Geo Textile Unit.</t>
         </is>
       </c>
-      <c r="F219" s="12" t="inlineStr"/>
-      <c r="G219" s="12" t="inlineStr"/>
-      <c r="H219" s="12" t="inlineStr"/>
-      <c r="I219" s="12" t="inlineStr"/>
-      <c r="J219" s="17" t="inlineStr">
+      <c r="F219" s="20" t="inlineStr"/>
+      <c r="G219" s="20" t="inlineStr"/>
+      <c r="H219" s="20" t="inlineStr"/>
+      <c r="I219" s="20" t="inlineStr"/>
+      <c r="J219" s="25" t="inlineStr">
         <is>
           <t>784640</t>
         </is>
       </c>
-      <c r="K219" s="12" t="inlineStr"/>
-      <c r="L219" s="12" t="inlineStr">
+      <c r="K219" s="20" t="inlineStr"/>
+      <c r="L219" s="20" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="12" t="inlineStr">
+      <c r="A220" s="20" t="inlineStr">
         <is>
           <t>M123</t>
         </is>
       </c>
-      <c r="B220" s="13" t="inlineStr"/>
-      <c r="C220" s="12" t="inlineStr"/>
-      <c r="D220" s="12" t="inlineStr"/>
-      <c r="E220" s="15" t="inlineStr">
+      <c r="B220" s="21" t="inlineStr"/>
+      <c r="C220" s="20" t="inlineStr"/>
+      <c r="D220" s="20" t="inlineStr"/>
+      <c r="E220" s="23" t="inlineStr">
         <is>
           <t>Sundry Party-Vicar Concrete Products</t>
         </is>
       </c>
-      <c r="F220" s="12" t="inlineStr"/>
-      <c r="G220" s="12" t="inlineStr"/>
-      <c r="H220" s="12" t="inlineStr"/>
-      <c r="I220" s="12" t="inlineStr"/>
-      <c r="J220" s="12" t="inlineStr"/>
-      <c r="K220" s="17" t="inlineStr">
+      <c r="F220" s="20" t="inlineStr"/>
+      <c r="G220" s="20" t="inlineStr"/>
+      <c r="H220" s="20" t="inlineStr"/>
+      <c r="I220" s="20" t="inlineStr"/>
+      <c r="J220" s="20" t="inlineStr"/>
+      <c r="K220" s="25" t="inlineStr">
         <is>
           <t>43496089</t>
         </is>
       </c>
-      <c r="L220" s="12" t="inlineStr">
+      <c r="L220" s="20" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="12" t="inlineStr">
+      <c r="A221" s="20" t="inlineStr">
         <is>
           <t>M123</t>
         </is>
       </c>
-      <c r="B221" s="13" t="inlineStr"/>
-      <c r="C221" s="12" t="inlineStr"/>
-      <c r="D221" s="12" t="inlineStr"/>
-      <c r="E221" s="15" t="inlineStr">
+      <c r="B221" s="21" t="inlineStr"/>
+      <c r="C221" s="20" t="inlineStr"/>
+      <c r="D221" s="20" t="inlineStr"/>
+      <c r="E221" s="23" t="inlineStr">
         <is>
           <t>Flactuation Gain /Loss</t>
         </is>
       </c>
-      <c r="F221" s="12" t="inlineStr"/>
-      <c r="G221" s="12" t="inlineStr"/>
-      <c r="H221" s="12" t="inlineStr"/>
-      <c r="I221" s="12" t="inlineStr"/>
-      <c r="J221" s="12" t="inlineStr"/>
-      <c r="K221" s="17" t="inlineStr">
+      <c r="F221" s="20" t="inlineStr"/>
+      <c r="G221" s="20" t="inlineStr"/>
+      <c r="H221" s="20" t="inlineStr"/>
+      <c r="I221" s="20" t="inlineStr"/>
+      <c r="J221" s="20" t="inlineStr"/>
+      <c r="K221" s="25" t="inlineStr">
         <is>
           <t>1302969.4</t>
         </is>
       </c>
-      <c r="L221" s="12" t="inlineStr">
+      <c r="L221" s="20" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="12" t="inlineStr">
+      <c r="A222" s="20" t="inlineStr">
         <is>
           <t>M123</t>
         </is>
       </c>
-      <c r="B222" s="13" t="inlineStr"/>
-      <c r="C222" s="12" t="inlineStr"/>
-      <c r="D222" s="12" t="inlineStr"/>
-      <c r="E222" s="15" t="inlineStr">
+      <c r="B222" s="21" t="inlineStr"/>
+      <c r="C222" s="20" t="inlineStr"/>
+      <c r="D222" s="20" t="inlineStr"/>
+      <c r="E222" s="23" t="inlineStr">
         <is>
           <t>AR-BREB/DMD-SPC-G-24-Lot-1-WB-Export</t>
         </is>
       </c>
-      <c r="F222" s="12" t="inlineStr"/>
-      <c r="G222" s="12" t="inlineStr"/>
-      <c r="H222" s="12" t="inlineStr"/>
-      <c r="I222" s="12" t="inlineStr"/>
-      <c r="J222" s="12" t="inlineStr"/>
-      <c r="K222" s="17" t="inlineStr">
+      <c r="F222" s="20" t="inlineStr"/>
+      <c r="G222" s="20" t="inlineStr"/>
+      <c r="H222" s="20" t="inlineStr"/>
+      <c r="I222" s="20" t="inlineStr"/>
+      <c r="J222" s="20" t="inlineStr"/>
+      <c r="K222" s="25" t="inlineStr">
         <is>
           <t>52003841.92</t>
         </is>
       </c>
-      <c r="L222" s="12" t="inlineStr">
+      <c r="L222" s="20" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="12" t="inlineStr">
+      <c r="A223" s="20" t="inlineStr">
         <is>
           <t>M123</t>
         </is>
       </c>
-      <c r="B223" s="13" t="inlineStr">
+      <c r="B223" s="21" t="inlineStr">
         <is>
           <t>USD Match: $.789,663.20
 Lender Amount: 41625247.63
 Borrower Amount: 41625247.63</t>
         </is>
       </c>
-      <c r="C223" s="12" t="inlineStr"/>
-      <c r="D223" s="12" t="inlineStr"/>
-      <c r="E223" s="18" t="inlineStr">
+      <c r="C223" s="20" t="inlineStr"/>
+      <c r="D223" s="20" t="inlineStr"/>
+      <c r="E223" s="26" t="inlineStr">
         <is>
           <t>Interunit received agst Contract no.MCEP/BREB/DMD-SPC-G-24-Lot-1/2023-2024. Date.07.07.2024 This amount actually Pole Unit but deposit in Geo Textile Unit. Total bill amount $.789,663.20/- But ($.443,663.42+$6,400) Deposit in Geo Textile Unit. Remaining   $339520.78 Deposit in Steel Unit. Bank charge-$80. Rate.122.60, Total Received amount $.789583.20, Deposit amount JV partner Vicar Concrete Products $363,103.21 Remaing amount deposit in CIL., Exchange Rate-122.60/-, Gain-(122.60-119.59)=Tk. 3.01/- CIL-$432,880.20</t>
         </is>
       </c>
-      <c r="F223" s="12" t="inlineStr"/>
-      <c r="G223" s="12" t="inlineStr"/>
-      <c r="H223" s="12" t="inlineStr"/>
-      <c r="I223" s="12" t="inlineStr"/>
-      <c r="J223" s="12" t="inlineStr"/>
-      <c r="K223" s="12" t="inlineStr"/>
-      <c r="L223" s="12" t="inlineStr">
+      <c r="F223" s="20" t="inlineStr"/>
+      <c r="G223" s="20" t="inlineStr"/>
+      <c r="H223" s="20" t="inlineStr"/>
+      <c r="I223" s="20" t="inlineStr"/>
+      <c r="J223" s="20" t="inlineStr"/>
+      <c r="K223" s="20" t="inlineStr"/>
+      <c r="L223" s="20" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="12" t="inlineStr">
+      <c r="A224" s="20" t="inlineStr">
         <is>
           <t>M123</t>
         </is>
       </c>
-      <c r="B224" s="13" t="inlineStr"/>
-      <c r="C224" s="12" t="inlineStr"/>
-      <c r="D224" s="12" t="inlineStr">
+      <c r="B224" s="21" t="inlineStr"/>
+      <c r="C224" s="20" t="inlineStr"/>
+      <c r="D224" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E224" s="19" t="inlineStr">
+      <c r="E224" s="27" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F224" s="12" t="inlineStr"/>
-      <c r="G224" s="12" t="inlineStr"/>
-      <c r="H224" s="12" t="inlineStr"/>
-      <c r="I224" s="12" t="inlineStr"/>
-      <c r="J224" s="12" t="inlineStr"/>
-      <c r="K224" s="12" t="inlineStr"/>
-      <c r="L224" s="12" t="inlineStr">
+      <c r="F224" s="20" t="inlineStr"/>
+      <c r="G224" s="20" t="inlineStr"/>
+      <c r="H224" s="20" t="inlineStr"/>
+      <c r="I224" s="20" t="inlineStr"/>
+      <c r="J224" s="20" t="inlineStr"/>
+      <c r="K224" s="20" t="inlineStr"/>
+      <c r="L224" s="20" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="20" t="inlineStr">
+      <c r="A225" s="12" t="inlineStr">
         <is>
           <t>M002</t>
         </is>
       </c>
-      <c r="B225" s="21" t="inlineStr"/>
-      <c r="C225" s="22" t="inlineStr">
+      <c r="B225" s="13" t="inlineStr"/>
+      <c r="C225" s="14" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D225" s="20" t="inlineStr">
+      <c r="D225" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E225" s="23" t="inlineStr">
+      <c r="E225" s="15" t="inlineStr">
         <is>
           <t>Sundry Party-Castle Construction Co.Ltd.</t>
         </is>
       </c>
-      <c r="F225" s="20" t="inlineStr"/>
-      <c r="G225" s="20" t="inlineStr"/>
-      <c r="H225" s="24" t="inlineStr">
+      <c r="F225" s="12" t="inlineStr"/>
+      <c r="G225" s="12" t="inlineStr"/>
+      <c r="H225" s="16" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I225" s="20" t="inlineStr">
+      <c r="I225" s="12" t="inlineStr">
         <is>
           <t>1431</t>
         </is>
       </c>
-      <c r="J225" s="20" t="inlineStr"/>
-      <c r="K225" s="25" t="inlineStr">
+      <c r="J225" s="12" t="inlineStr"/>
+      <c r="K225" s="17" t="inlineStr">
         <is>
           <t>36600000</t>
         </is>
       </c>
-      <c r="L225" s="20" t="inlineStr">
+      <c r="L225" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="20" t="inlineStr">
+      <c r="A226" s="12" t="inlineStr">
         <is>
           <t>M002</t>
         </is>
       </c>
-      <c r="B226" s="21" t="inlineStr">
+      <c r="B226" s="13" t="inlineStr">
         <is>
           <t>USD Match: $300,000
 Lender Amount: 36600000.00
 Borrower Amount: 36600000.00</t>
         </is>
       </c>
-      <c r="C226" s="20" t="inlineStr"/>
-      <c r="D226" s="20" t="inlineStr"/>
-      <c r="E226" s="26" t="inlineStr">
+      <c r="C226" s="12" t="inlineStr"/>
+      <c r="D226" s="12" t="inlineStr"/>
+      <c r="E226" s="18" t="inlineStr">
         <is>
           <t>Amount pais to Sundry Party-Castle Construction Co.Ltd. $300,000 @ Tk.122/-</t>
         </is>
       </c>
-      <c r="F226" s="20" t="inlineStr"/>
-      <c r="G226" s="20" t="inlineStr"/>
-      <c r="H226" s="20" t="inlineStr"/>
-      <c r="I226" s="20" t="inlineStr"/>
-      <c r="J226" s="20" t="inlineStr"/>
-      <c r="K226" s="20" t="inlineStr"/>
-      <c r="L226" s="20" t="inlineStr">
+      <c r="F226" s="12" t="inlineStr"/>
+      <c r="G226" s="12" t="inlineStr"/>
+      <c r="H226" s="12" t="inlineStr"/>
+      <c r="I226" s="12" t="inlineStr"/>
+      <c r="J226" s="12" t="inlineStr"/>
+      <c r="K226" s="12" t="inlineStr"/>
+      <c r="L226" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="20" t="inlineStr">
+      <c r="A227" s="12" t="inlineStr">
         <is>
           <t>M002</t>
         </is>
       </c>
-      <c r="B227" s="21" t="inlineStr"/>
-      <c r="C227" s="20" t="inlineStr"/>
-      <c r="D227" s="20" t="inlineStr">
+      <c r="B227" s="13" t="inlineStr"/>
+      <c r="C227" s="12" t="inlineStr"/>
+      <c r="D227" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E227" s="27" t="inlineStr">
+      <c r="E227" s="19" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F227" s="20" t="inlineStr"/>
-      <c r="G227" s="20" t="inlineStr"/>
-      <c r="H227" s="20" t="inlineStr"/>
-      <c r="I227" s="20" t="inlineStr"/>
-      <c r="J227" s="20" t="inlineStr"/>
-      <c r="K227" s="20" t="inlineStr"/>
-      <c r="L227" s="20" t="inlineStr">
+      <c r="F227" s="12" t="inlineStr"/>
+      <c r="G227" s="12" t="inlineStr"/>
+      <c r="H227" s="12" t="inlineStr"/>
+      <c r="I227" s="12" t="inlineStr"/>
+      <c r="J227" s="12" t="inlineStr"/>
+      <c r="K227" s="12" t="inlineStr"/>
+      <c r="L227" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="12" t="inlineStr">
+      <c r="A228" s="20" t="inlineStr">
         <is>
           <t>M004</t>
         </is>
       </c>
-      <c r="B228" s="13" t="inlineStr"/>
-      <c r="C228" s="14" t="inlineStr">
+      <c r="B228" s="21" t="inlineStr"/>
+      <c r="C228" s="22" t="inlineStr">
         <is>
           <t>05/Jun/2025</t>
         </is>
       </c>
-      <c r="D228" s="12" t="inlineStr">
+      <c r="D228" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E228" s="15" t="inlineStr">
+      <c r="E228" s="23" t="inlineStr">
         <is>
           <t>AP-Lube Corner</t>
         </is>
       </c>
-      <c r="F228" s="12" t="inlineStr"/>
-      <c r="G228" s="12" t="inlineStr"/>
-      <c r="H228" s="16" t="inlineStr">
+      <c r="F228" s="20" t="inlineStr"/>
+      <c r="G228" s="20" t="inlineStr"/>
+      <c r="H228" s="24" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I228" s="12" t="inlineStr">
+      <c r="I228" s="20" t="inlineStr">
         <is>
           <t>1434</t>
         </is>
       </c>
-      <c r="J228" s="12" t="inlineStr"/>
-      <c r="K228" s="17" t="inlineStr">
+      <c r="J228" s="20" t="inlineStr"/>
+      <c r="K228" s="25" t="inlineStr">
         <is>
           <t>62525</t>
         </is>
       </c>
-      <c r="L228" s="12" t="inlineStr">
+      <c r="L228" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="12" t="inlineStr">
+      <c r="A229" s="20" t="inlineStr">
         <is>
           <t>M004</t>
         </is>
       </c>
-      <c r="B229" s="13" t="inlineStr">
+      <c r="B229" s="21" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 62525.00
 Borrower Amount: 62525.00</t>
         </is>
       </c>
-      <c r="C229" s="12" t="inlineStr"/>
-      <c r="D229" s="12" t="inlineStr"/>
-      <c r="E229" s="18" t="inlineStr">
+      <c r="C229" s="20" t="inlineStr"/>
+      <c r="D229" s="20" t="inlineStr"/>
+      <c r="E229" s="26" t="inlineStr">
         <is>
           <t>Being the amount paid to Lube Corner- Supply of consumble , Bill NO 1394:   Challan Number:   Manual PO [ CCEL Reno/PO/20245//8/87247(E)].  BA Team (A), Company Unit: Concrete Pole &amp; Pile, Project Name :  SPC Pole ( CCEL) Renovation. . VN: 23011. Bank MDB 311</t>
         </is>
       </c>
-      <c r="F229" s="12" t="inlineStr"/>
-      <c r="G229" s="12" t="inlineStr"/>
-      <c r="H229" s="12" t="inlineStr"/>
-      <c r="I229" s="12" t="inlineStr"/>
-      <c r="J229" s="12" t="inlineStr"/>
-      <c r="K229" s="12" t="inlineStr"/>
-      <c r="L229" s="12" t="inlineStr">
+      <c r="F229" s="20" t="inlineStr"/>
+      <c r="G229" s="20" t="inlineStr"/>
+      <c r="H229" s="20" t="inlineStr"/>
+      <c r="I229" s="20" t="inlineStr"/>
+      <c r="J229" s="20" t="inlineStr"/>
+      <c r="K229" s="20" t="inlineStr"/>
+      <c r="L229" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="12" t="inlineStr">
+      <c r="A230" s="20" t="inlineStr">
         <is>
           <t>M004</t>
         </is>
       </c>
-      <c r="B230" s="13" t="inlineStr"/>
-      <c r="C230" s="12" t="inlineStr"/>
-      <c r="D230" s="12" t="inlineStr">
+      <c r="B230" s="21" t="inlineStr"/>
+      <c r="C230" s="20" t="inlineStr"/>
+      <c r="D230" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E230" s="19" t="inlineStr">
+      <c r="E230" s="27" t="inlineStr">
         <is>
           <t>nur.hossain</t>
         </is>
       </c>
-      <c r="F230" s="12" t="inlineStr"/>
-      <c r="G230" s="12" t="inlineStr"/>
-      <c r="H230" s="12" t="inlineStr"/>
-      <c r="I230" s="12" t="inlineStr"/>
-      <c r="J230" s="12" t="inlineStr"/>
-      <c r="K230" s="12" t="inlineStr"/>
-      <c r="L230" s="12" t="inlineStr">
+      <c r="F230" s="20" t="inlineStr"/>
+      <c r="G230" s="20" t="inlineStr"/>
+      <c r="H230" s="20" t="inlineStr"/>
+      <c r="I230" s="20" t="inlineStr"/>
+      <c r="J230" s="20" t="inlineStr"/>
+      <c r="K230" s="20" t="inlineStr"/>
+      <c r="L230" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="inlineStr"/>
-      <c r="B231" s="2" t="inlineStr"/>
-      <c r="C231" s="6" t="inlineStr">
+      <c r="A231" s="12" t="inlineStr">
+        <is>
+          <t>M127</t>
+        </is>
+      </c>
+      <c r="B231" s="13" t="inlineStr"/>
+      <c r="C231" s="14" t="inlineStr">
         <is>
           <t>05/Jun/2025</t>
         </is>
       </c>
-      <c r="D231" s="1" t="inlineStr">
+      <c r="D231" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E231" s="7" t="inlineStr">
+      <c r="E231" s="15" t="inlineStr">
         <is>
           <t>AP-Chemitec</t>
         </is>
       </c>
-      <c r="F231" s="1" t="inlineStr"/>
-      <c r="G231" s="1" t="inlineStr"/>
-      <c r="H231" s="9" t="inlineStr">
+      <c r="F231" s="12" t="inlineStr"/>
+      <c r="G231" s="12" t="inlineStr"/>
+      <c r="H231" s="16" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I231" s="1" t="inlineStr">
+      <c r="I231" s="12" t="inlineStr">
         <is>
           <t>1435</t>
         </is>
       </c>
-      <c r="J231" s="1" t="inlineStr"/>
-      <c r="K231" s="8" t="inlineStr">
+      <c r="J231" s="12" t="inlineStr"/>
+      <c r="K231" s="17" t="inlineStr">
         <is>
           <t>20000</t>
         </is>
       </c>
-      <c r="L231" s="1" t="inlineStr"/>
+      <c r="L231" s="12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="inlineStr"/>
-      <c r="B232" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 1 block</t>
-        </is>
-      </c>
-      <c r="C232" s="1" t="inlineStr"/>
-      <c r="D232" s="1" t="inlineStr"/>
-      <c r="E232" s="10" t="inlineStr">
+      <c r="A232" s="12" t="inlineStr">
+        <is>
+          <t>M127</t>
+        </is>
+      </c>
+      <c r="B232" s="13" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 20000.00
+Borrower Amount: 20000.00</t>
+        </is>
+      </c>
+      <c r="C232" s="12" t="inlineStr"/>
+      <c r="D232" s="12" t="inlineStr"/>
+      <c r="E232" s="18" t="inlineStr">
         <is>
           <t>Being the amount paid to-Chemitec -supply of consumble items , Bill NO 009:   Challan Number:   Manual PO [ CCEL Reno/PO/2024/8/87251)].  BA Team (A), Company Unit: Concrete Pole &amp; Pile, Project Name :  SPC Pole ( CCEL) Renovation  actual VN: 23018, bank MDB 311.</t>
         </is>
       </c>
-      <c r="F232" s="1" t="inlineStr"/>
-      <c r="G232" s="1" t="inlineStr"/>
-      <c r="H232" s="1" t="inlineStr"/>
-      <c r="I232" s="1" t="inlineStr"/>
-      <c r="J232" s="1" t="inlineStr"/>
-      <c r="K232" s="1" t="inlineStr"/>
-      <c r="L232" s="1" t="inlineStr"/>
+      <c r="F232" s="12" t="inlineStr"/>
+      <c r="G232" s="12" t="inlineStr"/>
+      <c r="H232" s="12" t="inlineStr"/>
+      <c r="I232" s="12" t="inlineStr"/>
+      <c r="J232" s="12" t="inlineStr"/>
+      <c r="K232" s="12" t="inlineStr"/>
+      <c r="L232" s="12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="inlineStr"/>
-      <c r="B233" s="2" t="inlineStr"/>
-      <c r="C233" s="1" t="inlineStr"/>
-      <c r="D233" s="1" t="inlineStr">
+      <c r="A233" s="12" t="inlineStr">
+        <is>
+          <t>M127</t>
+        </is>
+      </c>
+      <c r="B233" s="13" t="inlineStr"/>
+      <c r="C233" s="12" t="inlineStr"/>
+      <c r="D233" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E233" s="11" t="inlineStr">
+      <c r="E233" s="19" t="inlineStr">
         <is>
           <t>nur.hossain</t>
         </is>
       </c>
-      <c r="F233" s="1" t="inlineStr"/>
-      <c r="G233" s="1" t="inlineStr"/>
-      <c r="H233" s="1" t="inlineStr"/>
-      <c r="I233" s="1" t="inlineStr"/>
-      <c r="J233" s="1" t="inlineStr"/>
-      <c r="K233" s="1" t="inlineStr"/>
-      <c r="L233" s="1" t="inlineStr"/>
+      <c r="F233" s="12" t="inlineStr"/>
+      <c r="G233" s="12" t="inlineStr"/>
+      <c r="H233" s="12" t="inlineStr"/>
+      <c r="I233" s="12" t="inlineStr"/>
+      <c r="J233" s="12" t="inlineStr"/>
+      <c r="K233" s="12" t="inlineStr"/>
+      <c r="L233" s="12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="inlineStr"/>
-      <c r="B234" s="2" t="inlineStr"/>
-      <c r="C234" s="6" t="inlineStr">
+      <c r="A234" s="20" t="inlineStr">
+        <is>
+          <t>M128</t>
+        </is>
+      </c>
+      <c r="B234" s="21" t="inlineStr"/>
+      <c r="C234" s="22" t="inlineStr">
         <is>
           <t>05/Jun/2025</t>
         </is>
       </c>
-      <c r="D234" s="1" t="inlineStr">
+      <c r="D234" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E234" s="7" t="inlineStr">
+      <c r="E234" s="23" t="inlineStr">
         <is>
           <t>AP-Safe Construction Solutions</t>
         </is>
       </c>
-      <c r="F234" s="1" t="inlineStr"/>
-      <c r="G234" s="1" t="inlineStr"/>
-      <c r="H234" s="9" t="inlineStr">
+      <c r="F234" s="20" t="inlineStr"/>
+      <c r="G234" s="20" t="inlineStr"/>
+      <c r="H234" s="24" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I234" s="1" t="inlineStr">
+      <c r="I234" s="20" t="inlineStr">
         <is>
           <t>1436</t>
         </is>
       </c>
-      <c r="J234" s="1" t="inlineStr"/>
-      <c r="K234" s="8" t="inlineStr">
+      <c r="J234" s="20" t="inlineStr"/>
+      <c r="K234" s="25" t="inlineStr">
         <is>
           <t>17500</t>
         </is>
       </c>
-      <c r="L234" s="1" t="inlineStr"/>
+      <c r="L234" s="20" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="inlineStr"/>
-      <c r="B235" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 1 block</t>
-        </is>
-      </c>
-      <c r="C235" s="1" t="inlineStr"/>
-      <c r="D235" s="1" t="inlineStr"/>
-      <c r="E235" s="10" t="inlineStr">
+      <c r="A235" s="20" t="inlineStr">
+        <is>
+          <t>M128</t>
+        </is>
+      </c>
+      <c r="B235" s="21" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 17500.00
+Borrower Amount: 17500.00</t>
+        </is>
+      </c>
+      <c r="C235" s="20" t="inlineStr"/>
+      <c r="D235" s="20" t="inlineStr"/>
+      <c r="E235" s="26" t="inlineStr">
         <is>
           <t>Being the amount -Safe Construction Solutions  to . against purchase CONSUMBLE ITEMS,    Challan Number:   Manual PO [ CCEL/Reno//PO///2024/9/21824-C] .bill no: 7951.  BA Team -Civil PEB unit. Company Unit: Concrete Pole &amp; Pile, Project Name :  SPC Pole ( CCEL) Renovation . bank MDB 331</t>
         </is>
       </c>
-      <c r="F235" s="1" t="inlineStr"/>
-      <c r="G235" s="1" t="inlineStr"/>
-      <c r="H235" s="1" t="inlineStr"/>
-      <c r="I235" s="1" t="inlineStr"/>
-      <c r="J235" s="1" t="inlineStr"/>
-      <c r="K235" s="1" t="inlineStr"/>
-      <c r="L235" s="1" t="inlineStr"/>
+      <c r="F235" s="20" t="inlineStr"/>
+      <c r="G235" s="20" t="inlineStr"/>
+      <c r="H235" s="20" t="inlineStr"/>
+      <c r="I235" s="20" t="inlineStr"/>
+      <c r="J235" s="20" t="inlineStr"/>
+      <c r="K235" s="20" t="inlineStr"/>
+      <c r="L235" s="20" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="inlineStr"/>
-      <c r="B236" s="2" t="inlineStr"/>
-      <c r="C236" s="1" t="inlineStr"/>
-      <c r="D236" s="1" t="inlineStr">
+      <c r="A236" s="20" t="inlineStr">
+        <is>
+          <t>M128</t>
+        </is>
+      </c>
+      <c r="B236" s="21" t="inlineStr"/>
+      <c r="C236" s="20" t="inlineStr"/>
+      <c r="D236" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E236" s="11" t="inlineStr">
+      <c r="E236" s="27" t="inlineStr">
         <is>
           <t>nur.hossain</t>
         </is>
       </c>
-      <c r="F236" s="1" t="inlineStr"/>
-      <c r="G236" s="1" t="inlineStr"/>
-      <c r="H236" s="1" t="inlineStr"/>
-      <c r="I236" s="1" t="inlineStr"/>
-      <c r="J236" s="1" t="inlineStr"/>
-      <c r="K236" s="1" t="inlineStr"/>
-      <c r="L236" s="1" t="inlineStr"/>
+      <c r="F236" s="20" t="inlineStr"/>
+      <c r="G236" s="20" t="inlineStr"/>
+      <c r="H236" s="20" t="inlineStr"/>
+      <c r="I236" s="20" t="inlineStr"/>
+      <c r="J236" s="20" t="inlineStr"/>
+      <c r="K236" s="20" t="inlineStr"/>
+      <c r="L236" s="20" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="inlineStr"/>
-      <c r="B237" s="2" t="inlineStr"/>
-      <c r="C237" s="6" t="inlineStr">
+      <c r="A237" s="12" t="inlineStr">
+        <is>
+          <t>M129</t>
+        </is>
+      </c>
+      <c r="B237" s="13" t="inlineStr"/>
+      <c r="C237" s="14" t="inlineStr">
         <is>
           <t>05/Jun/2025</t>
         </is>
       </c>
-      <c r="D237" s="1" t="inlineStr">
+      <c r="D237" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E237" s="7" t="inlineStr">
+      <c r="E237" s="15" t="inlineStr">
         <is>
           <t>AP-Pragati Life Insurance Limited</t>
         </is>
       </c>
-      <c r="F237" s="1" t="inlineStr"/>
-      <c r="G237" s="1" t="inlineStr"/>
-      <c r="H237" s="9" t="inlineStr">
+      <c r="F237" s="12" t="inlineStr"/>
+      <c r="G237" s="12" t="inlineStr"/>
+      <c r="H237" s="16" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I237" s="1" t="inlineStr">
+      <c r="I237" s="12" t="inlineStr">
         <is>
           <t>1437</t>
         </is>
       </c>
-      <c r="J237" s="1" t="inlineStr"/>
-      <c r="K237" s="8" t="inlineStr">
+      <c r="J237" s="12" t="inlineStr"/>
+      <c r="K237" s="17" t="inlineStr">
         <is>
           <t>110839</t>
         </is>
       </c>
-      <c r="L237" s="1" t="inlineStr"/>
+      <c r="L237" s="12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="inlineStr"/>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 1 block</t>
-        </is>
-      </c>
-      <c r="C238" s="1" t="inlineStr"/>
-      <c r="D238" s="1" t="inlineStr"/>
-      <c r="E238" s="10" t="inlineStr">
+      <c r="A238" s="12" t="inlineStr">
+        <is>
+          <t>M129</t>
+        </is>
+      </c>
+      <c r="B238" s="13" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 110839.00
+Borrower Amount: 110839.00</t>
+        </is>
+      </c>
+      <c r="C238" s="12" t="inlineStr"/>
+      <c r="D238" s="12" t="inlineStr"/>
+      <c r="E238" s="18" t="inlineStr">
         <is>
           <t>Being the amount paid to Pragati Life Insurance Limited agt. Group Insurance Renewal Bill. Bill No.: 00633 &amp; 00633-C. Bill period: 1 march -2025 to 28 feb -2026 Bank MDB 331</t>
         </is>
       </c>
-      <c r="F238" s="1" t="inlineStr"/>
-      <c r="G238" s="1" t="inlineStr"/>
-      <c r="H238" s="1" t="inlineStr"/>
-      <c r="I238" s="1" t="inlineStr"/>
-      <c r="J238" s="1" t="inlineStr"/>
-      <c r="K238" s="1" t="inlineStr"/>
-      <c r="L238" s="1" t="inlineStr"/>
+      <c r="F238" s="12" t="inlineStr"/>
+      <c r="G238" s="12" t="inlineStr"/>
+      <c r="H238" s="12" t="inlineStr"/>
+      <c r="I238" s="12" t="inlineStr"/>
+      <c r="J238" s="12" t="inlineStr"/>
+      <c r="K238" s="12" t="inlineStr"/>
+      <c r="L238" s="12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="inlineStr"/>
-      <c r="B239" s="2" t="inlineStr"/>
-      <c r="C239" s="1" t="inlineStr"/>
-      <c r="D239" s="1" t="inlineStr">
+      <c r="A239" s="12" t="inlineStr">
+        <is>
+          <t>M129</t>
+        </is>
+      </c>
+      <c r="B239" s="13" t="inlineStr"/>
+      <c r="C239" s="12" t="inlineStr"/>
+      <c r="D239" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E239" s="11" t="inlineStr">
+      <c r="E239" s="19" t="inlineStr">
         <is>
           <t>nur.hossain</t>
         </is>
       </c>
-      <c r="F239" s="1" t="inlineStr"/>
-      <c r="G239" s="1" t="inlineStr"/>
-      <c r="H239" s="1" t="inlineStr"/>
-      <c r="I239" s="1" t="inlineStr"/>
-      <c r="J239" s="1" t="inlineStr"/>
-      <c r="K239" s="1" t="inlineStr"/>
-      <c r="L239" s="1" t="inlineStr"/>
+      <c r="F239" s="12" t="inlineStr"/>
+      <c r="G239" s="12" t="inlineStr"/>
+      <c r="H239" s="12" t="inlineStr"/>
+      <c r="I239" s="12" t="inlineStr"/>
+      <c r="J239" s="12" t="inlineStr"/>
+      <c r="K239" s="12" t="inlineStr"/>
+      <c r="L239" s="12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="20" t="inlineStr">
@@ -14811,2316 +14863,2340 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="1" t="inlineStr"/>
-      <c r="B390" s="2" t="inlineStr"/>
-      <c r="C390" s="6" t="inlineStr">
+      <c r="A390" s="20" t="inlineStr">
+        <is>
+          <t>M130</t>
+        </is>
+      </c>
+      <c r="B390" s="21" t="inlineStr"/>
+      <c r="C390" s="22" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D390" s="1" t="inlineStr">
+      <c r="D390" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E390" s="7" t="inlineStr">
+      <c r="E390" s="23" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000304-CI</t>
         </is>
       </c>
-      <c r="F390" s="1" t="inlineStr"/>
-      <c r="G390" s="1" t="inlineStr"/>
-      <c r="H390" s="9" t="inlineStr">
+      <c r="F390" s="20" t="inlineStr"/>
+      <c r="G390" s="20" t="inlineStr"/>
+      <c r="H390" s="24" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I390" s="1" t="inlineStr">
+      <c r="I390" s="20" t="inlineStr">
         <is>
           <t>274</t>
         </is>
       </c>
-      <c r="J390" s="1" t="inlineStr"/>
-      <c r="K390" s="8" t="inlineStr">
+      <c r="J390" s="20" t="inlineStr"/>
+      <c r="K390" s="25" t="inlineStr">
         <is>
           <t>24000000</t>
         </is>
       </c>
-      <c r="L390" s="1" t="inlineStr"/>
+      <c r="L390" s="20" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="391">
-      <c r="A391" s="1" t="inlineStr"/>
-      <c r="B391" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Borrower's narration does not contain lender's short code</t>
-        </is>
-      </c>
-      <c r="C391" s="1" t="inlineStr"/>
-      <c r="D391" s="1" t="inlineStr"/>
-      <c r="E391" s="10" t="inlineStr">
+      <c r="A391" s="20" t="inlineStr">
+        <is>
+          <t>M130</t>
+        </is>
+      </c>
+      <c r="B391" s="21" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 24000000.00
+Borrower Amount: 24000000.00</t>
+        </is>
+      </c>
+      <c r="C391" s="20" t="inlineStr"/>
+      <c r="D391" s="20" t="inlineStr"/>
+      <c r="E391" s="26" t="inlineStr">
         <is>
           <t>Amount received as Interunit Loan A/C-Steel Unit, MDBL#0304</t>
         </is>
       </c>
-      <c r="F391" s="1" t="inlineStr"/>
-      <c r="G391" s="1" t="inlineStr"/>
-      <c r="H391" s="1" t="inlineStr"/>
-      <c r="I391" s="1" t="inlineStr"/>
-      <c r="J391" s="1" t="inlineStr"/>
-      <c r="K391" s="1" t="inlineStr"/>
-      <c r="L391" s="1" t="inlineStr"/>
+      <c r="F391" s="20" t="inlineStr"/>
+      <c r="G391" s="20" t="inlineStr"/>
+      <c r="H391" s="20" t="inlineStr"/>
+      <c r="I391" s="20" t="inlineStr"/>
+      <c r="J391" s="20" t="inlineStr"/>
+      <c r="K391" s="20" t="inlineStr"/>
+      <c r="L391" s="20" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="392">
-      <c r="A392" s="1" t="inlineStr"/>
-      <c r="B392" s="2" t="inlineStr"/>
-      <c r="C392" s="1" t="inlineStr"/>
-      <c r="D392" s="1" t="inlineStr">
+      <c r="A392" s="20" t="inlineStr">
+        <is>
+          <t>M130</t>
+        </is>
+      </c>
+      <c r="B392" s="21" t="inlineStr"/>
+      <c r="C392" s="20" t="inlineStr"/>
+      <c r="D392" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E392" s="11" t="inlineStr">
+      <c r="E392" s="27" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F392" s="1" t="inlineStr"/>
-      <c r="G392" s="1" t="inlineStr"/>
-      <c r="H392" s="1" t="inlineStr"/>
-      <c r="I392" s="1" t="inlineStr"/>
-      <c r="J392" s="1" t="inlineStr"/>
-      <c r="K392" s="1" t="inlineStr"/>
-      <c r="L392" s="1" t="inlineStr"/>
+      <c r="F392" s="20" t="inlineStr"/>
+      <c r="G392" s="20" t="inlineStr"/>
+      <c r="H392" s="20" t="inlineStr"/>
+      <c r="I392" s="20" t="inlineStr"/>
+      <c r="J392" s="20" t="inlineStr"/>
+      <c r="K392" s="20" t="inlineStr"/>
+      <c r="L392" s="20" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="393">
-      <c r="A393" s="20" t="inlineStr">
+      <c r="A393" s="12" t="inlineStr">
         <is>
           <t>M061</t>
         </is>
       </c>
-      <c r="B393" s="21" t="inlineStr"/>
-      <c r="C393" s="22" t="inlineStr">
+      <c r="B393" s="13" t="inlineStr"/>
+      <c r="C393" s="14" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
         </is>
       </c>
-      <c r="D393" s="20" t="inlineStr">
+      <c r="D393" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E393" s="23" t="inlineStr">
+      <c r="E393" s="15" t="inlineStr">
         <is>
           <t>GULC#187724010094/24-Crushed Stone</t>
         </is>
       </c>
-      <c r="F393" s="20" t="inlineStr"/>
-      <c r="G393" s="20" t="inlineStr"/>
-      <c r="H393" s="24" t="inlineStr">
+      <c r="F393" s="12" t="inlineStr"/>
+      <c r="G393" s="12" t="inlineStr"/>
+      <c r="H393" s="16" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I393" s="20" t="inlineStr">
+      <c r="I393" s="12" t="inlineStr">
         <is>
           <t>1491</t>
         </is>
       </c>
-      <c r="J393" s="20" t="inlineStr"/>
-      <c r="K393" s="25" t="inlineStr">
+      <c r="J393" s="12" t="inlineStr"/>
+      <c r="K393" s="17" t="inlineStr">
         <is>
           <t>1235000</t>
         </is>
       </c>
-      <c r="L393" s="20" t="inlineStr">
+      <c r="L393" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="20" t="inlineStr">
+      <c r="A394" s="12" t="inlineStr">
         <is>
           <t>M061</t>
         </is>
       </c>
-      <c r="B394" s="21" t="inlineStr">
+      <c r="B394" s="13" t="inlineStr">
         <is>
           <t>LC Match: LC-187724010094/24
 Lender Amount: 1235000.00
 Borrower Amount: 1235000.00</t>
         </is>
       </c>
-      <c r="C394" s="20" t="inlineStr"/>
-      <c r="D394" s="20" t="inlineStr"/>
-      <c r="E394" s="26" t="inlineStr">
+      <c r="C394" s="12" t="inlineStr"/>
+      <c r="D394" s="12" t="inlineStr"/>
+      <c r="E394" s="18" t="inlineStr">
         <is>
           <t>Amount being paid as Port,Shipping &amp; Carrying charges agt LC-187724010094/24[Item-11,000 MT Crushed Stone-Project-G-24-Lot-1-Team-A]</t>
         </is>
       </c>
-      <c r="F394" s="20" t="inlineStr"/>
-      <c r="G394" s="20" t="inlineStr"/>
-      <c r="H394" s="20" t="inlineStr"/>
-      <c r="I394" s="20" t="inlineStr"/>
-      <c r="J394" s="20" t="inlineStr"/>
-      <c r="K394" s="20" t="inlineStr"/>
-      <c r="L394" s="20" t="inlineStr">
+      <c r="F394" s="12" t="inlineStr"/>
+      <c r="G394" s="12" t="inlineStr"/>
+      <c r="H394" s="12" t="inlineStr"/>
+      <c r="I394" s="12" t="inlineStr"/>
+      <c r="J394" s="12" t="inlineStr"/>
+      <c r="K394" s="12" t="inlineStr"/>
+      <c r="L394" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="20" t="inlineStr">
+      <c r="A395" s="12" t="inlineStr">
         <is>
           <t>M061</t>
         </is>
       </c>
-      <c r="B395" s="21" t="inlineStr"/>
-      <c r="C395" s="20" t="inlineStr"/>
-      <c r="D395" s="20" t="inlineStr">
+      <c r="B395" s="13" t="inlineStr"/>
+      <c r="C395" s="12" t="inlineStr"/>
+      <c r="D395" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E395" s="27" t="inlineStr">
+      <c r="E395" s="19" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F395" s="20" t="inlineStr"/>
-      <c r="G395" s="20" t="inlineStr"/>
-      <c r="H395" s="20" t="inlineStr"/>
-      <c r="I395" s="20" t="inlineStr"/>
-      <c r="J395" s="20" t="inlineStr"/>
-      <c r="K395" s="20" t="inlineStr"/>
-      <c r="L395" s="20" t="inlineStr">
+      <c r="F395" s="12" t="inlineStr"/>
+      <c r="G395" s="12" t="inlineStr"/>
+      <c r="H395" s="12" t="inlineStr"/>
+      <c r="I395" s="12" t="inlineStr"/>
+      <c r="J395" s="12" t="inlineStr"/>
+      <c r="K395" s="12" t="inlineStr"/>
+      <c r="L395" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="12" t="inlineStr">
+      <c r="A396" s="20" t="inlineStr">
         <is>
           <t>M121</t>
         </is>
       </c>
-      <c r="B396" s="13" t="inlineStr"/>
-      <c r="C396" s="14" t="inlineStr">
+      <c r="B396" s="21" t="inlineStr"/>
+      <c r="C396" s="22" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D396" s="12" t="inlineStr">
+      <c r="D396" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E396" s="15" t="inlineStr">
+      <c r="E396" s="23" t="inlineStr">
         <is>
           <t>Eastern Bank STD-1011220138530</t>
         </is>
       </c>
-      <c r="F396" s="12" t="inlineStr"/>
-      <c r="G396" s="12" t="inlineStr"/>
-      <c r="H396" s="16" t="inlineStr">
+      <c r="F396" s="20" t="inlineStr"/>
+      <c r="G396" s="20" t="inlineStr"/>
+      <c r="H396" s="24" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I396" s="12" t="inlineStr">
+      <c r="I396" s="20" t="inlineStr">
         <is>
           <t>275</t>
         </is>
       </c>
-      <c r="J396" s="12" t="inlineStr"/>
-      <c r="K396" s="17" t="inlineStr">
+      <c r="J396" s="20" t="inlineStr"/>
+      <c r="K396" s="25" t="inlineStr">
         <is>
           <t>1300000</t>
         </is>
       </c>
-      <c r="L396" s="12" t="inlineStr">
+      <c r="L396" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="12" t="inlineStr">
+      <c r="A397" s="20" t="inlineStr">
         <is>
           <t>M121</t>
         </is>
       </c>
-      <c r="B397" s="13" t="inlineStr">
+      <c r="B397" s="21" t="inlineStr">
         <is>
           <t>Interunit Loan Match: EBL#4056
 Lender Amount: 1300000.00
 Borrower Amount: 1300000.00</t>
         </is>
       </c>
-      <c r="C397" s="12" t="inlineStr"/>
-      <c r="D397" s="12" t="inlineStr"/>
-      <c r="E397" s="18" t="inlineStr">
+      <c r="C397" s="20" t="inlineStr"/>
+      <c r="D397" s="20" t="inlineStr"/>
+      <c r="E397" s="26" t="inlineStr">
         <is>
           <t>Amount received as Interunit Loan A/C-Steel Unit, EBL#44056</t>
         </is>
       </c>
-      <c r="F397" s="12" t="inlineStr"/>
-      <c r="G397" s="12" t="inlineStr"/>
-      <c r="H397" s="12" t="inlineStr"/>
-      <c r="I397" s="12" t="inlineStr"/>
-      <c r="J397" s="12" t="inlineStr"/>
-      <c r="K397" s="12" t="inlineStr"/>
-      <c r="L397" s="12" t="inlineStr">
+      <c r="F397" s="20" t="inlineStr"/>
+      <c r="G397" s="20" t="inlineStr"/>
+      <c r="H397" s="20" t="inlineStr"/>
+      <c r="I397" s="20" t="inlineStr"/>
+      <c r="J397" s="20" t="inlineStr"/>
+      <c r="K397" s="20" t="inlineStr"/>
+      <c r="L397" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="12" t="inlineStr">
+      <c r="A398" s="20" t="inlineStr">
         <is>
           <t>M121</t>
         </is>
       </c>
-      <c r="B398" s="13" t="inlineStr"/>
-      <c r="C398" s="12" t="inlineStr"/>
-      <c r="D398" s="12" t="inlineStr">
+      <c r="B398" s="21" t="inlineStr"/>
+      <c r="C398" s="20" t="inlineStr"/>
+      <c r="D398" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E398" s="19" t="inlineStr">
+      <c r="E398" s="27" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F398" s="12" t="inlineStr"/>
-      <c r="G398" s="12" t="inlineStr"/>
-      <c r="H398" s="12" t="inlineStr"/>
-      <c r="I398" s="12" t="inlineStr"/>
-      <c r="J398" s="12" t="inlineStr"/>
-      <c r="K398" s="12" t="inlineStr"/>
-      <c r="L398" s="12" t="inlineStr">
+      <c r="F398" s="20" t="inlineStr"/>
+      <c r="G398" s="20" t="inlineStr"/>
+      <c r="H398" s="20" t="inlineStr"/>
+      <c r="I398" s="20" t="inlineStr"/>
+      <c r="J398" s="20" t="inlineStr"/>
+      <c r="K398" s="20" t="inlineStr"/>
+      <c r="L398" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="20" t="inlineStr">
+      <c r="A399" s="12" t="inlineStr">
         <is>
           <t>M063</t>
         </is>
       </c>
-      <c r="B399" s="21" t="inlineStr"/>
-      <c r="C399" s="22" t="inlineStr">
+      <c r="B399" s="13" t="inlineStr"/>
+      <c r="C399" s="14" t="inlineStr">
         <is>
           <t>26/Jun/2025</t>
         </is>
       </c>
-      <c r="D399" s="20" t="inlineStr">
+      <c r="D399" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E399" s="23" t="inlineStr">
+      <c r="E399" s="15" t="inlineStr">
         <is>
           <t>Sundry Party-Vicar Concrete Products</t>
         </is>
       </c>
-      <c r="F399" s="20" t="inlineStr"/>
-      <c r="G399" s="20" t="inlineStr"/>
-      <c r="H399" s="24" t="inlineStr">
+      <c r="F399" s="12" t="inlineStr"/>
+      <c r="G399" s="12" t="inlineStr"/>
+      <c r="H399" s="16" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I399" s="20" t="inlineStr">
+      <c r="I399" s="12" t="inlineStr">
         <is>
           <t>1496</t>
         </is>
       </c>
-      <c r="J399" s="20" t="inlineStr"/>
-      <c r="K399" s="25" t="inlineStr">
+      <c r="J399" s="12" t="inlineStr"/>
+      <c r="K399" s="17" t="inlineStr">
         <is>
           <t>43496089</t>
         </is>
       </c>
-      <c r="L399" s="20" t="inlineStr">
+      <c r="L399" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="20" t="inlineStr">
+      <c r="A400" s="12" t="inlineStr">
         <is>
           <t>M063</t>
         </is>
       </c>
-      <c r="B400" s="21" t="inlineStr">
+      <c r="B400" s="13" t="inlineStr">
         <is>
           <t>USD Match: $.789,663.20
 Lender Amount: 43496089.00
 Borrower Amount: 43496089.00</t>
         </is>
       </c>
-      <c r="C400" s="20" t="inlineStr"/>
-      <c r="D400" s="20" t="inlineStr"/>
-      <c r="E400" s="26" t="inlineStr">
+      <c r="C400" s="12" t="inlineStr"/>
+      <c r="D400" s="12" t="inlineStr"/>
+      <c r="E400" s="18" t="inlineStr">
         <is>
           <t>Amount paid agst Contract no.MCEP/BREB/DMD-SPC-G-24-Lot-1/2023-2024. Date.07.07.2024 This amount actually Pole Unit but deposit in Geo Textile Unit. Total bill amount $.789,663.20/- But ($.443,663.42+$6,400) Deposit in Geo Textile Unit. Remaining   $339520.78 Deposit in Steel Unit. Bank charge-$80. Rate.122.60, Total Received amount $.789583.20, Deposit amount JV partner Vicar Concrete Products $363,103.21 Remaing amount deposit in CIL.</t>
         </is>
       </c>
-      <c r="F400" s="20" t="inlineStr"/>
-      <c r="G400" s="20" t="inlineStr"/>
-      <c r="H400" s="20" t="inlineStr"/>
-      <c r="I400" s="20" t="inlineStr"/>
-      <c r="J400" s="20" t="inlineStr"/>
-      <c r="K400" s="20" t="inlineStr"/>
-      <c r="L400" s="20" t="inlineStr">
+      <c r="F400" s="12" t="inlineStr"/>
+      <c r="G400" s="12" t="inlineStr"/>
+      <c r="H400" s="12" t="inlineStr"/>
+      <c r="I400" s="12" t="inlineStr"/>
+      <c r="J400" s="12" t="inlineStr"/>
+      <c r="K400" s="12" t="inlineStr"/>
+      <c r="L400" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="20" t="inlineStr">
+      <c r="A401" s="12" t="inlineStr">
         <is>
           <t>M063</t>
         </is>
       </c>
-      <c r="B401" s="21" t="inlineStr"/>
-      <c r="C401" s="20" t="inlineStr"/>
-      <c r="D401" s="20" t="inlineStr">
+      <c r="B401" s="13" t="inlineStr"/>
+      <c r="C401" s="12" t="inlineStr"/>
+      <c r="D401" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E401" s="27" t="inlineStr">
+      <c r="E401" s="19" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F401" s="20" t="inlineStr"/>
-      <c r="G401" s="20" t="inlineStr"/>
-      <c r="H401" s="20" t="inlineStr"/>
-      <c r="I401" s="20" t="inlineStr"/>
-      <c r="J401" s="20" t="inlineStr"/>
-      <c r="K401" s="20" t="inlineStr"/>
-      <c r="L401" s="20" t="inlineStr">
+      <c r="F401" s="12" t="inlineStr"/>
+      <c r="G401" s="12" t="inlineStr"/>
+      <c r="H401" s="12" t="inlineStr"/>
+      <c r="I401" s="12" t="inlineStr"/>
+      <c r="J401" s="12" t="inlineStr"/>
+      <c r="K401" s="12" t="inlineStr"/>
+      <c r="L401" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="12" t="inlineStr">
+      <c r="A402" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B402" s="13" t="inlineStr"/>
-      <c r="C402" s="14" t="inlineStr">
+      <c r="B402" s="21" t="inlineStr"/>
+      <c r="C402" s="22" t="inlineStr">
         <is>
           <t>30/Jun/2025</t>
         </is>
       </c>
-      <c r="D402" s="12" t="inlineStr">
+      <c r="D402" s="20" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E402" s="15" t="inlineStr">
+      <c r="E402" s="23" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F402" s="12" t="inlineStr"/>
-      <c r="G402" s="12" t="inlineStr"/>
-      <c r="H402" s="16" t="inlineStr">
+      <c r="F402" s="20" t="inlineStr"/>
+      <c r="G402" s="20" t="inlineStr"/>
+      <c r="H402" s="24" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I402" s="12" t="inlineStr">
+      <c r="I402" s="20" t="inlineStr">
         <is>
           <t>1515</t>
         </is>
       </c>
-      <c r="J402" s="17" t="inlineStr">
+      <c r="J402" s="25" t="inlineStr">
         <is>
           <t>20733</t>
         </is>
       </c>
-      <c r="K402" s="12" t="inlineStr"/>
-      <c r="L402" s="12" t="inlineStr">
+      <c r="K402" s="20" t="inlineStr"/>
+      <c r="L402" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="12" t="inlineStr">
+      <c r="A403" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B403" s="13" t="inlineStr"/>
-      <c r="C403" s="12" t="inlineStr"/>
-      <c r="D403" s="12" t="inlineStr"/>
-      <c r="E403" s="15" t="inlineStr">
+      <c r="B403" s="21" t="inlineStr"/>
+      <c r="C403" s="20" t="inlineStr"/>
+      <c r="D403" s="20" t="inlineStr"/>
+      <c r="E403" s="23" t="inlineStr">
         <is>
           <t>Salary &amp; Allowance-Admin</t>
         </is>
       </c>
-      <c r="F403" s="12" t="inlineStr"/>
-      <c r="G403" s="12" t="inlineStr"/>
-      <c r="H403" s="12" t="inlineStr"/>
-      <c r="I403" s="12" t="inlineStr"/>
-      <c r="J403" s="17" t="inlineStr">
+      <c r="F403" s="20" t="inlineStr"/>
+      <c r="G403" s="20" t="inlineStr"/>
+      <c r="H403" s="20" t="inlineStr"/>
+      <c r="I403" s="20" t="inlineStr"/>
+      <c r="J403" s="25" t="inlineStr">
         <is>
           <t>201597</t>
         </is>
       </c>
-      <c r="K403" s="12" t="inlineStr"/>
-      <c r="L403" s="12" t="inlineStr">
+      <c r="K403" s="20" t="inlineStr"/>
+      <c r="L403" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="12" t="inlineStr">
+      <c r="A404" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B404" s="13" t="inlineStr"/>
-      <c r="C404" s="12" t="inlineStr"/>
-      <c r="D404" s="12" t="inlineStr"/>
-      <c r="E404" s="15" t="inlineStr">
+      <c r="B404" s="21" t="inlineStr"/>
+      <c r="C404" s="20" t="inlineStr"/>
+      <c r="D404" s="20" t="inlineStr"/>
+      <c r="E404" s="23" t="inlineStr">
         <is>
           <t>Salary &amp; Allowance Finance-Admin</t>
         </is>
       </c>
-      <c r="F404" s="12" t="inlineStr"/>
-      <c r="G404" s="12" t="inlineStr"/>
-      <c r="H404" s="12" t="inlineStr"/>
-      <c r="I404" s="12" t="inlineStr"/>
-      <c r="J404" s="17" t="inlineStr">
+      <c r="F404" s="20" t="inlineStr"/>
+      <c r="G404" s="20" t="inlineStr"/>
+      <c r="H404" s="20" t="inlineStr"/>
+      <c r="I404" s="20" t="inlineStr"/>
+      <c r="J404" s="25" t="inlineStr">
         <is>
           <t>254538</t>
         </is>
       </c>
-      <c r="K404" s="12" t="inlineStr"/>
-      <c r="L404" s="12" t="inlineStr">
+      <c r="K404" s="20" t="inlineStr"/>
+      <c r="L404" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="12" t="inlineStr">
+      <c r="A405" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B405" s="13" t="inlineStr"/>
-      <c r="C405" s="12" t="inlineStr"/>
-      <c r="D405" s="12" t="inlineStr"/>
-      <c r="E405" s="15" t="inlineStr">
+      <c r="B405" s="21" t="inlineStr"/>
+      <c r="C405" s="20" t="inlineStr"/>
+      <c r="D405" s="20" t="inlineStr"/>
+      <c r="E405" s="23" t="inlineStr">
         <is>
           <t>Salary &amp; Allowance IT-Admin</t>
         </is>
       </c>
-      <c r="F405" s="12" t="inlineStr"/>
-      <c r="G405" s="12" t="inlineStr"/>
-      <c r="H405" s="12" t="inlineStr"/>
-      <c r="I405" s="12" t="inlineStr"/>
-      <c r="J405" s="17" t="inlineStr">
+      <c r="F405" s="20" t="inlineStr"/>
+      <c r="G405" s="20" t="inlineStr"/>
+      <c r="H405" s="20" t="inlineStr"/>
+      <c r="I405" s="20" t="inlineStr"/>
+      <c r="J405" s="25" t="inlineStr">
         <is>
           <t>33990</t>
         </is>
       </c>
-      <c r="K405" s="12" t="inlineStr"/>
-      <c r="L405" s="12" t="inlineStr">
+      <c r="K405" s="20" t="inlineStr"/>
+      <c r="L405" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="12" t="inlineStr">
+      <c r="A406" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B406" s="13" t="inlineStr"/>
-      <c r="C406" s="12" t="inlineStr"/>
-      <c r="D406" s="12" t="inlineStr"/>
-      <c r="E406" s="15" t="inlineStr">
+      <c r="B406" s="21" t="inlineStr"/>
+      <c r="C406" s="20" t="inlineStr"/>
+      <c r="D406" s="20" t="inlineStr"/>
+      <c r="E406" s="23" t="inlineStr">
         <is>
           <t>Salary &amp; Allowances-Selling</t>
         </is>
       </c>
-      <c r="F406" s="12" t="inlineStr"/>
-      <c r="G406" s="12" t="inlineStr"/>
-      <c r="H406" s="12" t="inlineStr"/>
-      <c r="I406" s="12" t="inlineStr"/>
-      <c r="J406" s="17" t="inlineStr">
+      <c r="F406" s="20" t="inlineStr"/>
+      <c r="G406" s="20" t="inlineStr"/>
+      <c r="H406" s="20" t="inlineStr"/>
+      <c r="I406" s="20" t="inlineStr"/>
+      <c r="J406" s="25" t="inlineStr">
         <is>
           <t>858619</t>
         </is>
       </c>
-      <c r="K406" s="12" t="inlineStr"/>
-      <c r="L406" s="12" t="inlineStr">
+      <c r="K406" s="20" t="inlineStr"/>
+      <c r="L406" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="12" t="inlineStr">
+      <c r="A407" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B407" s="13" t="inlineStr"/>
-      <c r="C407" s="12" t="inlineStr"/>
-      <c r="D407" s="12" t="inlineStr"/>
-      <c r="E407" s="15" t="inlineStr">
+      <c r="B407" s="21" t="inlineStr"/>
+      <c r="C407" s="20" t="inlineStr"/>
+      <c r="D407" s="20" t="inlineStr"/>
+      <c r="E407" s="23" t="inlineStr">
         <is>
           <t>Salary &amp; Allowance Custom &amp; Commercial-Admin</t>
         </is>
       </c>
-      <c r="F407" s="12" t="inlineStr"/>
-      <c r="G407" s="12" t="inlineStr"/>
-      <c r="H407" s="12" t="inlineStr"/>
-      <c r="I407" s="12" t="inlineStr"/>
-      <c r="J407" s="17" t="inlineStr">
+      <c r="F407" s="20" t="inlineStr"/>
+      <c r="G407" s="20" t="inlineStr"/>
+      <c r="H407" s="20" t="inlineStr"/>
+      <c r="I407" s="20" t="inlineStr"/>
+      <c r="J407" s="25" t="inlineStr">
         <is>
           <t>76763</t>
         </is>
       </c>
-      <c r="K407" s="12" t="inlineStr"/>
-      <c r="L407" s="12" t="inlineStr">
+      <c r="K407" s="20" t="inlineStr"/>
+      <c r="L407" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="12" t="inlineStr">
+      <c r="A408" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B408" s="13" t="inlineStr"/>
-      <c r="C408" s="12" t="inlineStr"/>
-      <c r="D408" s="12" t="inlineStr"/>
-      <c r="E408" s="15" t="inlineStr">
+      <c r="B408" s="21" t="inlineStr"/>
+      <c r="C408" s="20" t="inlineStr"/>
+      <c r="D408" s="20" t="inlineStr"/>
+      <c r="E408" s="23" t="inlineStr">
         <is>
           <t>Salary &amp; Allowances-Tax-Admin</t>
         </is>
       </c>
-      <c r="F408" s="12" t="inlineStr"/>
-      <c r="G408" s="12" t="inlineStr"/>
-      <c r="H408" s="12" t="inlineStr"/>
-      <c r="I408" s="12" t="inlineStr"/>
-      <c r="J408" s="17" t="inlineStr">
+      <c r="F408" s="20" t="inlineStr"/>
+      <c r="G408" s="20" t="inlineStr"/>
+      <c r="H408" s="20" t="inlineStr"/>
+      <c r="I408" s="20" t="inlineStr"/>
+      <c r="J408" s="25" t="inlineStr">
         <is>
           <t>127689</t>
         </is>
       </c>
-      <c r="K408" s="12" t="inlineStr"/>
-      <c r="L408" s="12" t="inlineStr">
+      <c r="K408" s="20" t="inlineStr"/>
+      <c r="L408" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="12" t="inlineStr">
+      <c r="A409" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B409" s="13" t="inlineStr"/>
-      <c r="C409" s="12" t="inlineStr"/>
-      <c r="D409" s="12" t="inlineStr"/>
-      <c r="E409" s="15" t="inlineStr">
+      <c r="B409" s="21" t="inlineStr"/>
+      <c r="C409" s="20" t="inlineStr"/>
+      <c r="D409" s="20" t="inlineStr"/>
+      <c r="E409" s="23" t="inlineStr">
         <is>
           <t>Salary &amp; Allowances-Learning &amp; Culture</t>
         </is>
       </c>
-      <c r="F409" s="12" t="inlineStr"/>
-      <c r="G409" s="12" t="inlineStr"/>
-      <c r="H409" s="12" t="inlineStr"/>
-      <c r="I409" s="12" t="inlineStr"/>
-      <c r="J409" s="17" t="inlineStr">
+      <c r="F409" s="20" t="inlineStr"/>
+      <c r="G409" s="20" t="inlineStr"/>
+      <c r="H409" s="20" t="inlineStr"/>
+      <c r="I409" s="20" t="inlineStr"/>
+      <c r="J409" s="25" t="inlineStr">
         <is>
           <t>283417</t>
         </is>
       </c>
-      <c r="K409" s="12" t="inlineStr"/>
-      <c r="L409" s="12" t="inlineStr">
+      <c r="K409" s="20" t="inlineStr"/>
+      <c r="L409" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="12" t="inlineStr">
+      <c r="A410" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B410" s="13" t="inlineStr"/>
-      <c r="C410" s="12" t="inlineStr"/>
-      <c r="D410" s="12" t="inlineStr"/>
-      <c r="E410" s="15" t="inlineStr">
+      <c r="B410" s="21" t="inlineStr"/>
+      <c r="C410" s="20" t="inlineStr"/>
+      <c r="D410" s="20" t="inlineStr"/>
+      <c r="E410" s="23" t="inlineStr">
         <is>
           <t>Fac-Salary &amp; Allowance-Production</t>
         </is>
       </c>
-      <c r="F410" s="12" t="inlineStr"/>
-      <c r="G410" s="12" t="inlineStr"/>
-      <c r="H410" s="12" t="inlineStr"/>
-      <c r="I410" s="12" t="inlineStr"/>
-      <c r="J410" s="17" t="inlineStr">
+      <c r="F410" s="20" t="inlineStr"/>
+      <c r="G410" s="20" t="inlineStr"/>
+      <c r="H410" s="20" t="inlineStr"/>
+      <c r="I410" s="20" t="inlineStr"/>
+      <c r="J410" s="25" t="inlineStr">
         <is>
           <t>484192</t>
         </is>
       </c>
-      <c r="K410" s="12" t="inlineStr"/>
-      <c r="L410" s="12" t="inlineStr">
+      <c r="K410" s="20" t="inlineStr"/>
+      <c r="L410" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="12" t="inlineStr">
+      <c r="A411" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B411" s="13" t="inlineStr"/>
-      <c r="C411" s="12" t="inlineStr"/>
-      <c r="D411" s="12" t="inlineStr"/>
-      <c r="E411" s="15" t="inlineStr">
+      <c r="B411" s="21" t="inlineStr"/>
+      <c r="C411" s="20" t="inlineStr"/>
+      <c r="D411" s="20" t="inlineStr"/>
+      <c r="E411" s="23" t="inlineStr">
         <is>
           <t>Fac-Salary &amp; Allowance-Delivery</t>
         </is>
       </c>
-      <c r="F411" s="12" t="inlineStr"/>
-      <c r="G411" s="12" t="inlineStr"/>
-      <c r="H411" s="12" t="inlineStr"/>
-      <c r="I411" s="12" t="inlineStr"/>
-      <c r="J411" s="17" t="inlineStr">
+      <c r="F411" s="20" t="inlineStr"/>
+      <c r="G411" s="20" t="inlineStr"/>
+      <c r="H411" s="20" t="inlineStr"/>
+      <c r="I411" s="20" t="inlineStr"/>
+      <c r="J411" s="25" t="inlineStr">
         <is>
           <t>80266</t>
         </is>
       </c>
-      <c r="K411" s="12" t="inlineStr"/>
-      <c r="L411" s="12" t="inlineStr">
+      <c r="K411" s="20" t="inlineStr"/>
+      <c r="L411" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="12" t="inlineStr">
+      <c r="A412" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B412" s="13" t="inlineStr"/>
-      <c r="C412" s="12" t="inlineStr"/>
-      <c r="D412" s="12" t="inlineStr"/>
-      <c r="E412" s="15" t="inlineStr">
+      <c r="B412" s="21" t="inlineStr"/>
+      <c r="C412" s="20" t="inlineStr"/>
+      <c r="D412" s="20" t="inlineStr"/>
+      <c r="E412" s="23" t="inlineStr">
         <is>
           <t>Fac-Salary &amp; Allowance-Quality Control</t>
         </is>
       </c>
-      <c r="F412" s="12" t="inlineStr"/>
-      <c r="G412" s="12" t="inlineStr"/>
-      <c r="H412" s="12" t="inlineStr"/>
-      <c r="I412" s="12" t="inlineStr"/>
-      <c r="J412" s="17" t="inlineStr">
+      <c r="F412" s="20" t="inlineStr"/>
+      <c r="G412" s="20" t="inlineStr"/>
+      <c r="H412" s="20" t="inlineStr"/>
+      <c r="I412" s="20" t="inlineStr"/>
+      <c r="J412" s="25" t="inlineStr">
         <is>
           <t>84844</t>
         </is>
       </c>
-      <c r="K412" s="12" t="inlineStr"/>
-      <c r="L412" s="12" t="inlineStr">
+      <c r="K412" s="20" t="inlineStr"/>
+      <c r="L412" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="12" t="inlineStr">
+      <c r="A413" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B413" s="13" t="inlineStr"/>
-      <c r="C413" s="12" t="inlineStr"/>
-      <c r="D413" s="12" t="inlineStr"/>
-      <c r="E413" s="15" t="inlineStr">
+      <c r="B413" s="21" t="inlineStr"/>
+      <c r="C413" s="20" t="inlineStr"/>
+      <c r="D413" s="20" t="inlineStr"/>
+      <c r="E413" s="23" t="inlineStr">
         <is>
           <t>Fac-Salary &amp; Allowance-Store</t>
         </is>
       </c>
-      <c r="F413" s="12" t="inlineStr"/>
-      <c r="G413" s="12" t="inlineStr"/>
-      <c r="H413" s="12" t="inlineStr"/>
-      <c r="I413" s="12" t="inlineStr"/>
-      <c r="J413" s="17" t="inlineStr">
+      <c r="F413" s="20" t="inlineStr"/>
+      <c r="G413" s="20" t="inlineStr"/>
+      <c r="H413" s="20" t="inlineStr"/>
+      <c r="I413" s="20" t="inlineStr"/>
+      <c r="J413" s="25" t="inlineStr">
         <is>
           <t>127326</t>
         </is>
       </c>
-      <c r="K413" s="12" t="inlineStr"/>
-      <c r="L413" s="12" t="inlineStr">
+      <c r="K413" s="20" t="inlineStr"/>
+      <c r="L413" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="12" t="inlineStr">
+      <c r="A414" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B414" s="13" t="inlineStr"/>
-      <c r="C414" s="12" t="inlineStr"/>
-      <c r="D414" s="12" t="inlineStr"/>
-      <c r="E414" s="15" t="inlineStr">
+      <c r="B414" s="21" t="inlineStr"/>
+      <c r="C414" s="20" t="inlineStr"/>
+      <c r="D414" s="20" t="inlineStr"/>
+      <c r="E414" s="23" t="inlineStr">
         <is>
           <t>Fac-Salary &amp; Allowance-Maintenance</t>
         </is>
       </c>
-      <c r="F414" s="12" t="inlineStr"/>
-      <c r="G414" s="12" t="inlineStr"/>
-      <c r="H414" s="12" t="inlineStr"/>
-      <c r="I414" s="12" t="inlineStr"/>
-      <c r="J414" s="17" t="inlineStr">
+      <c r="F414" s="20" t="inlineStr"/>
+      <c r="G414" s="20" t="inlineStr"/>
+      <c r="H414" s="20" t="inlineStr"/>
+      <c r="I414" s="20" t="inlineStr"/>
+      <c r="J414" s="25" t="inlineStr">
         <is>
           <t>376537</t>
         </is>
       </c>
-      <c r="K414" s="12" t="inlineStr"/>
-      <c r="L414" s="12" t="inlineStr">
+      <c r="K414" s="20" t="inlineStr"/>
+      <c r="L414" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="12" t="inlineStr">
+      <c r="A415" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B415" s="13" t="inlineStr"/>
-      <c r="C415" s="12" t="inlineStr"/>
-      <c r="D415" s="12" t="inlineStr"/>
-      <c r="E415" s="15" t="inlineStr">
+      <c r="B415" s="21" t="inlineStr"/>
+      <c r="C415" s="20" t="inlineStr"/>
+      <c r="D415" s="20" t="inlineStr"/>
+      <c r="E415" s="23" t="inlineStr">
         <is>
           <t>Interunit Loan A/C-Geo Textile Unit.</t>
         </is>
       </c>
-      <c r="F415" s="12" t="inlineStr"/>
-      <c r="G415" s="12" t="inlineStr"/>
-      <c r="H415" s="12" t="inlineStr"/>
-      <c r="I415" s="12" t="inlineStr"/>
-      <c r="J415" s="17" t="inlineStr">
+      <c r="F415" s="20" t="inlineStr"/>
+      <c r="G415" s="20" t="inlineStr"/>
+      <c r="H415" s="20" t="inlineStr"/>
+      <c r="I415" s="20" t="inlineStr"/>
+      <c r="J415" s="25" t="inlineStr">
         <is>
           <t>123502</t>
         </is>
       </c>
-      <c r="K415" s="12" t="inlineStr"/>
-      <c r="L415" s="12" t="inlineStr">
+      <c r="K415" s="20" t="inlineStr"/>
+      <c r="L415" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="12" t="inlineStr">
+      <c r="A416" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B416" s="13" t="inlineStr"/>
-      <c r="C416" s="12" t="inlineStr"/>
-      <c r="D416" s="12" t="inlineStr"/>
-      <c r="E416" s="15" t="inlineStr">
+      <c r="B416" s="21" t="inlineStr"/>
+      <c r="C416" s="20" t="inlineStr"/>
+      <c r="D416" s="20" t="inlineStr"/>
+      <c r="E416" s="23" t="inlineStr">
         <is>
           <t>Fac-Salary &amp; Allowance-Admin</t>
         </is>
       </c>
-      <c r="F416" s="12" t="inlineStr"/>
-      <c r="G416" s="12" t="inlineStr"/>
-      <c r="H416" s="12" t="inlineStr"/>
-      <c r="I416" s="12" t="inlineStr"/>
-      <c r="J416" s="17" t="inlineStr">
+      <c r="F416" s="20" t="inlineStr"/>
+      <c r="G416" s="20" t="inlineStr"/>
+      <c r="H416" s="20" t="inlineStr"/>
+      <c r="I416" s="20" t="inlineStr"/>
+      <c r="J416" s="25" t="inlineStr">
         <is>
           <t>148561</t>
         </is>
       </c>
-      <c r="K416" s="12" t="inlineStr"/>
-      <c r="L416" s="12" t="inlineStr">
+      <c r="K416" s="20" t="inlineStr"/>
+      <c r="L416" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="12" t="inlineStr">
+      <c r="A417" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B417" s="13" t="inlineStr"/>
-      <c r="C417" s="12" t="inlineStr"/>
-      <c r="D417" s="12" t="inlineStr"/>
-      <c r="E417" s="15" t="inlineStr">
+      <c r="B417" s="21" t="inlineStr"/>
+      <c r="C417" s="20" t="inlineStr"/>
+      <c r="D417" s="20" t="inlineStr"/>
+      <c r="E417" s="23" t="inlineStr">
         <is>
           <t>Fac-Salary &amp; Allowance-After Sales</t>
         </is>
       </c>
-      <c r="F417" s="12" t="inlineStr"/>
-      <c r="G417" s="12" t="inlineStr"/>
-      <c r="H417" s="12" t="inlineStr"/>
-      <c r="I417" s="12" t="inlineStr"/>
-      <c r="J417" s="17" t="inlineStr">
+      <c r="F417" s="20" t="inlineStr"/>
+      <c r="G417" s="20" t="inlineStr"/>
+      <c r="H417" s="20" t="inlineStr"/>
+      <c r="I417" s="20" t="inlineStr"/>
+      <c r="J417" s="25" t="inlineStr">
         <is>
           <t>14523</t>
         </is>
       </c>
-      <c r="K417" s="12" t="inlineStr"/>
-      <c r="L417" s="12" t="inlineStr">
+      <c r="K417" s="20" t="inlineStr"/>
+      <c r="L417" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="12" t="inlineStr">
+      <c r="A418" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B418" s="13" t="inlineStr"/>
-      <c r="C418" s="12" t="inlineStr"/>
-      <c r="D418" s="12" t="inlineStr"/>
-      <c r="E418" s="15" t="inlineStr">
+      <c r="B418" s="21" t="inlineStr"/>
+      <c r="C418" s="20" t="inlineStr"/>
+      <c r="D418" s="20" t="inlineStr"/>
+      <c r="E418" s="23" t="inlineStr">
         <is>
           <t>Fac-Salary &amp; Allowance-IT</t>
         </is>
       </c>
-      <c r="F418" s="12" t="inlineStr"/>
-      <c r="G418" s="12" t="inlineStr"/>
-      <c r="H418" s="12" t="inlineStr"/>
-      <c r="I418" s="12" t="inlineStr"/>
-      <c r="J418" s="17" t="inlineStr">
+      <c r="F418" s="20" t="inlineStr"/>
+      <c r="G418" s="20" t="inlineStr"/>
+      <c r="H418" s="20" t="inlineStr"/>
+      <c r="I418" s="20" t="inlineStr"/>
+      <c r="J418" s="25" t="inlineStr">
         <is>
           <t>42740</t>
         </is>
       </c>
-      <c r="K418" s="12" t="inlineStr"/>
-      <c r="L418" s="12" t="inlineStr">
+      <c r="K418" s="20" t="inlineStr"/>
+      <c r="L418" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="12" t="inlineStr">
+      <c r="A419" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B419" s="13" t="inlineStr"/>
-      <c r="C419" s="12" t="inlineStr"/>
-      <c r="D419" s="12" t="inlineStr"/>
-      <c r="E419" s="15" t="inlineStr">
+      <c r="B419" s="21" t="inlineStr"/>
+      <c r="C419" s="20" t="inlineStr"/>
+      <c r="D419" s="20" t="inlineStr"/>
+      <c r="E419" s="23" t="inlineStr">
         <is>
           <t>Fac-Salary &amp; Allowance-Security Guard</t>
         </is>
       </c>
-      <c r="F419" s="12" t="inlineStr"/>
-      <c r="G419" s="12" t="inlineStr"/>
-      <c r="H419" s="12" t="inlineStr"/>
-      <c r="I419" s="12" t="inlineStr"/>
-      <c r="J419" s="17" t="inlineStr">
+      <c r="F419" s="20" t="inlineStr"/>
+      <c r="G419" s="20" t="inlineStr"/>
+      <c r="H419" s="20" t="inlineStr"/>
+      <c r="I419" s="20" t="inlineStr"/>
+      <c r="J419" s="25" t="inlineStr">
         <is>
           <t>97269</t>
         </is>
       </c>
-      <c r="K419" s="12" t="inlineStr"/>
-      <c r="L419" s="12" t="inlineStr">
+      <c r="K419" s="20" t="inlineStr"/>
+      <c r="L419" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="12" t="inlineStr">
+      <c r="A420" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B420" s="13" t="inlineStr"/>
-      <c r="C420" s="12" t="inlineStr"/>
-      <c r="D420" s="12" t="inlineStr"/>
-      <c r="E420" s="15" t="inlineStr">
+      <c r="B420" s="21" t="inlineStr"/>
+      <c r="C420" s="20" t="inlineStr"/>
+      <c r="D420" s="20" t="inlineStr"/>
+      <c r="E420" s="23" t="inlineStr">
         <is>
           <t>Fac-Salary &amp; Allowance-VAT</t>
         </is>
       </c>
-      <c r="F420" s="12" t="inlineStr"/>
-      <c r="G420" s="12" t="inlineStr"/>
-      <c r="H420" s="12" t="inlineStr"/>
-      <c r="I420" s="12" t="inlineStr"/>
-      <c r="J420" s="17" t="inlineStr">
+      <c r="F420" s="20" t="inlineStr"/>
+      <c r="G420" s="20" t="inlineStr"/>
+      <c r="H420" s="20" t="inlineStr"/>
+      <c r="I420" s="20" t="inlineStr"/>
+      <c r="J420" s="25" t="inlineStr">
         <is>
           <t>236926</t>
         </is>
       </c>
-      <c r="K420" s="12" t="inlineStr"/>
-      <c r="L420" s="12" t="inlineStr">
+      <c r="K420" s="20" t="inlineStr"/>
+      <c r="L420" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="12" t="inlineStr">
+      <c r="A421" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B421" s="13" t="inlineStr"/>
-      <c r="C421" s="12" t="inlineStr"/>
-      <c r="D421" s="12" t="inlineStr"/>
-      <c r="E421" s="15" t="inlineStr">
+      <c r="B421" s="21" t="inlineStr"/>
+      <c r="C421" s="20" t="inlineStr"/>
+      <c r="D421" s="20" t="inlineStr"/>
+      <c r="E421" s="23" t="inlineStr">
         <is>
           <t>PF Expenses-Admin</t>
         </is>
       </c>
-      <c r="F421" s="12" t="inlineStr"/>
-      <c r="G421" s="12" t="inlineStr"/>
-      <c r="H421" s="12" t="inlineStr"/>
-      <c r="I421" s="12" t="inlineStr"/>
-      <c r="J421" s="17" t="inlineStr">
+      <c r="F421" s="20" t="inlineStr"/>
+      <c r="G421" s="20" t="inlineStr"/>
+      <c r="H421" s="20" t="inlineStr"/>
+      <c r="I421" s="20" t="inlineStr"/>
+      <c r="J421" s="25" t="inlineStr">
         <is>
           <t>1650</t>
         </is>
       </c>
-      <c r="K421" s="12" t="inlineStr"/>
-      <c r="L421" s="12" t="inlineStr">
+      <c r="K421" s="20" t="inlineStr"/>
+      <c r="L421" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="12" t="inlineStr">
+      <c r="A422" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B422" s="13" t="inlineStr"/>
-      <c r="C422" s="12" t="inlineStr"/>
-      <c r="D422" s="12" t="inlineStr"/>
-      <c r="E422" s="15" t="inlineStr">
+      <c r="B422" s="21" t="inlineStr"/>
+      <c r="C422" s="20" t="inlineStr"/>
+      <c r="D422" s="20" t="inlineStr"/>
+      <c r="E422" s="23" t="inlineStr">
         <is>
           <t>PF Expenses Tax-Admin</t>
         </is>
       </c>
-      <c r="F422" s="12" t="inlineStr"/>
-      <c r="G422" s="12" t="inlineStr"/>
-      <c r="H422" s="12" t="inlineStr"/>
-      <c r="I422" s="12" t="inlineStr"/>
-      <c r="J422" s="17" t="inlineStr">
+      <c r="F422" s="20" t="inlineStr"/>
+      <c r="G422" s="20" t="inlineStr"/>
+      <c r="H422" s="20" t="inlineStr"/>
+      <c r="I422" s="20" t="inlineStr"/>
+      <c r="J422" s="25" t="inlineStr">
         <is>
           <t>6384</t>
         </is>
       </c>
-      <c r="K422" s="12" t="inlineStr"/>
-      <c r="L422" s="12" t="inlineStr">
+      <c r="K422" s="20" t="inlineStr"/>
+      <c r="L422" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="12" t="inlineStr">
+      <c r="A423" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B423" s="13" t="inlineStr"/>
-      <c r="C423" s="12" t="inlineStr"/>
-      <c r="D423" s="12" t="inlineStr"/>
-      <c r="E423" s="15" t="inlineStr">
+      <c r="B423" s="21" t="inlineStr"/>
+      <c r="C423" s="20" t="inlineStr"/>
+      <c r="D423" s="20" t="inlineStr"/>
+      <c r="E423" s="23" t="inlineStr">
         <is>
           <t>PF Expenses-Selling</t>
         </is>
       </c>
-      <c r="F423" s="12" t="inlineStr"/>
-      <c r="G423" s="12" t="inlineStr"/>
-      <c r="H423" s="12" t="inlineStr"/>
-      <c r="I423" s="12" t="inlineStr"/>
-      <c r="J423" s="17" t="inlineStr">
+      <c r="F423" s="20" t="inlineStr"/>
+      <c r="G423" s="20" t="inlineStr"/>
+      <c r="H423" s="20" t="inlineStr"/>
+      <c r="I423" s="20" t="inlineStr"/>
+      <c r="J423" s="25" t="inlineStr">
         <is>
           <t>31163</t>
         </is>
       </c>
-      <c r="K423" s="12" t="inlineStr"/>
-      <c r="L423" s="12" t="inlineStr">
+      <c r="K423" s="20" t="inlineStr"/>
+      <c r="L423" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="12" t="inlineStr">
+      <c r="A424" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B424" s="13" t="inlineStr"/>
-      <c r="C424" s="12" t="inlineStr"/>
-      <c r="D424" s="12" t="inlineStr"/>
-      <c r="E424" s="15" t="inlineStr">
+      <c r="B424" s="21" t="inlineStr"/>
+      <c r="C424" s="20" t="inlineStr"/>
+      <c r="D424" s="20" t="inlineStr"/>
+      <c r="E424" s="23" t="inlineStr">
         <is>
           <t>PF Expenses Commercial-Admin</t>
         </is>
       </c>
-      <c r="F424" s="12" t="inlineStr"/>
-      <c r="G424" s="12" t="inlineStr"/>
-      <c r="H424" s="12" t="inlineStr"/>
-      <c r="I424" s="12" t="inlineStr"/>
-      <c r="J424" s="17" t="inlineStr">
+      <c r="F424" s="20" t="inlineStr"/>
+      <c r="G424" s="20" t="inlineStr"/>
+      <c r="H424" s="20" t="inlineStr"/>
+      <c r="I424" s="20" t="inlineStr"/>
+      <c r="J424" s="25" t="inlineStr">
         <is>
           <t>3838</t>
         </is>
       </c>
-      <c r="K424" s="12" t="inlineStr"/>
-      <c r="L424" s="12" t="inlineStr">
+      <c r="K424" s="20" t="inlineStr"/>
+      <c r="L424" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="12" t="inlineStr">
+      <c r="A425" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B425" s="13" t="inlineStr"/>
-      <c r="C425" s="12" t="inlineStr"/>
-      <c r="D425" s="12" t="inlineStr"/>
-      <c r="E425" s="15" t="inlineStr">
+      <c r="B425" s="21" t="inlineStr"/>
+      <c r="C425" s="20" t="inlineStr"/>
+      <c r="D425" s="20" t="inlineStr"/>
+      <c r="E425" s="23" t="inlineStr">
         <is>
           <t>PF Expenses Finance-Admin</t>
         </is>
       </c>
-      <c r="F425" s="12" t="inlineStr"/>
-      <c r="G425" s="12" t="inlineStr"/>
-      <c r="H425" s="12" t="inlineStr"/>
-      <c r="I425" s="12" t="inlineStr"/>
-      <c r="J425" s="17" t="inlineStr">
+      <c r="F425" s="20" t="inlineStr"/>
+      <c r="G425" s="20" t="inlineStr"/>
+      <c r="H425" s="20" t="inlineStr"/>
+      <c r="I425" s="20" t="inlineStr"/>
+      <c r="J425" s="25" t="inlineStr">
         <is>
           <t>8138</t>
         </is>
       </c>
-      <c r="K425" s="12" t="inlineStr"/>
-      <c r="L425" s="12" t="inlineStr">
+      <c r="K425" s="20" t="inlineStr"/>
+      <c r="L425" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="12" t="inlineStr">
+      <c r="A426" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B426" s="13" t="inlineStr"/>
-      <c r="C426" s="12" t="inlineStr"/>
-      <c r="D426" s="12" t="inlineStr"/>
-      <c r="E426" s="15" t="inlineStr">
+      <c r="B426" s="21" t="inlineStr"/>
+      <c r="C426" s="20" t="inlineStr"/>
+      <c r="D426" s="20" t="inlineStr"/>
+      <c r="E426" s="23" t="inlineStr">
         <is>
           <t>P.F.Expenses-Accounts-Fac</t>
         </is>
       </c>
-      <c r="F426" s="12" t="inlineStr"/>
-      <c r="G426" s="12" t="inlineStr"/>
-      <c r="H426" s="12" t="inlineStr"/>
-      <c r="I426" s="12" t="inlineStr"/>
-      <c r="J426" s="17" t="inlineStr">
+      <c r="F426" s="20" t="inlineStr"/>
+      <c r="G426" s="20" t="inlineStr"/>
+      <c r="H426" s="20" t="inlineStr"/>
+      <c r="I426" s="20" t="inlineStr"/>
+      <c r="J426" s="25" t="inlineStr">
         <is>
           <t>1302</t>
         </is>
       </c>
-      <c r="K426" s="12" t="inlineStr"/>
-      <c r="L426" s="12" t="inlineStr">
+      <c r="K426" s="20" t="inlineStr"/>
+      <c r="L426" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="12" t="inlineStr">
+      <c r="A427" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B427" s="13" t="inlineStr"/>
-      <c r="C427" s="12" t="inlineStr"/>
-      <c r="D427" s="12" t="inlineStr"/>
-      <c r="E427" s="15" t="inlineStr">
+      <c r="B427" s="21" t="inlineStr"/>
+      <c r="C427" s="20" t="inlineStr"/>
+      <c r="D427" s="20" t="inlineStr"/>
+      <c r="E427" s="23" t="inlineStr">
         <is>
           <t>PF Expenses-Admin Fac</t>
         </is>
       </c>
-      <c r="F427" s="12" t="inlineStr"/>
-      <c r="G427" s="12" t="inlineStr"/>
-      <c r="H427" s="12" t="inlineStr"/>
-      <c r="I427" s="12" t="inlineStr"/>
-      <c r="J427" s="17" t="inlineStr">
+      <c r="F427" s="20" t="inlineStr"/>
+      <c r="G427" s="20" t="inlineStr"/>
+      <c r="H427" s="20" t="inlineStr"/>
+      <c r="I427" s="20" t="inlineStr"/>
+      <c r="J427" s="25" t="inlineStr">
         <is>
           <t>4570</t>
         </is>
       </c>
-      <c r="K427" s="12" t="inlineStr"/>
-      <c r="L427" s="12" t="inlineStr">
+      <c r="K427" s="20" t="inlineStr"/>
+      <c r="L427" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="12" t="inlineStr">
+      <c r="A428" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B428" s="13" t="inlineStr"/>
-      <c r="C428" s="12" t="inlineStr"/>
-      <c r="D428" s="12" t="inlineStr"/>
-      <c r="E428" s="15" t="inlineStr">
+      <c r="B428" s="21" t="inlineStr"/>
+      <c r="C428" s="20" t="inlineStr"/>
+      <c r="D428" s="20" t="inlineStr"/>
+      <c r="E428" s="23" t="inlineStr">
         <is>
           <t>PF Expenses Delivery-Fac</t>
         </is>
       </c>
-      <c r="F428" s="12" t="inlineStr"/>
-      <c r="G428" s="12" t="inlineStr"/>
-      <c r="H428" s="12" t="inlineStr"/>
-      <c r="I428" s="12" t="inlineStr"/>
-      <c r="J428" s="17" t="inlineStr">
+      <c r="F428" s="20" t="inlineStr"/>
+      <c r="G428" s="20" t="inlineStr"/>
+      <c r="H428" s="20" t="inlineStr"/>
+      <c r="I428" s="20" t="inlineStr"/>
+      <c r="J428" s="25" t="inlineStr">
         <is>
           <t>3853</t>
         </is>
       </c>
-      <c r="K428" s="12" t="inlineStr"/>
-      <c r="L428" s="12" t="inlineStr">
+      <c r="K428" s="20" t="inlineStr"/>
+      <c r="L428" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="12" t="inlineStr">
+      <c r="A429" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B429" s="13" t="inlineStr"/>
-      <c r="C429" s="12" t="inlineStr"/>
-      <c r="D429" s="12" t="inlineStr"/>
-      <c r="E429" s="15" t="inlineStr">
+      <c r="B429" s="21" t="inlineStr"/>
+      <c r="C429" s="20" t="inlineStr"/>
+      <c r="D429" s="20" t="inlineStr"/>
+      <c r="E429" s="23" t="inlineStr">
         <is>
           <t>PF Expenses Maintenance-Fac</t>
         </is>
       </c>
-      <c r="F429" s="12" t="inlineStr"/>
-      <c r="G429" s="12" t="inlineStr"/>
-      <c r="H429" s="12" t="inlineStr"/>
-      <c r="I429" s="12" t="inlineStr"/>
-      <c r="J429" s="17" t="inlineStr">
+      <c r="F429" s="20" t="inlineStr"/>
+      <c r="G429" s="20" t="inlineStr"/>
+      <c r="H429" s="20" t="inlineStr"/>
+      <c r="I429" s="20" t="inlineStr"/>
+      <c r="J429" s="25" t="inlineStr">
         <is>
           <t>12953</t>
         </is>
       </c>
-      <c r="K429" s="12" t="inlineStr"/>
-      <c r="L429" s="12" t="inlineStr">
+      <c r="K429" s="20" t="inlineStr"/>
+      <c r="L429" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="12" t="inlineStr">
+      <c r="A430" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B430" s="13" t="inlineStr"/>
-      <c r="C430" s="12" t="inlineStr"/>
-      <c r="D430" s="12" t="inlineStr"/>
-      <c r="E430" s="15" t="inlineStr">
+      <c r="B430" s="21" t="inlineStr"/>
+      <c r="C430" s="20" t="inlineStr"/>
+      <c r="D430" s="20" t="inlineStr"/>
+      <c r="E430" s="23" t="inlineStr">
         <is>
           <t>PF Expenses SPC Pole Production-Fac</t>
         </is>
       </c>
-      <c r="F430" s="12" t="inlineStr"/>
-      <c r="G430" s="12" t="inlineStr"/>
-      <c r="H430" s="12" t="inlineStr"/>
-      <c r="I430" s="12" t="inlineStr"/>
-      <c r="J430" s="17" t="inlineStr">
+      <c r="F430" s="20" t="inlineStr"/>
+      <c r="G430" s="20" t="inlineStr"/>
+      <c r="H430" s="20" t="inlineStr"/>
+      <c r="I430" s="20" t="inlineStr"/>
+      <c r="J430" s="25" t="inlineStr">
         <is>
           <t>6933</t>
         </is>
       </c>
-      <c r="K430" s="12" t="inlineStr"/>
-      <c r="L430" s="12" t="inlineStr">
+      <c r="K430" s="20" t="inlineStr"/>
+      <c r="L430" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="12" t="inlineStr">
+      <c r="A431" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B431" s="13" t="inlineStr"/>
-      <c r="C431" s="12" t="inlineStr"/>
-      <c r="D431" s="12" t="inlineStr"/>
-      <c r="E431" s="15" t="inlineStr">
+      <c r="B431" s="21" t="inlineStr"/>
+      <c r="C431" s="20" t="inlineStr"/>
+      <c r="D431" s="20" t="inlineStr"/>
+      <c r="E431" s="23" t="inlineStr">
         <is>
           <t>PF Expenses -CP-Quality &amp; Control-Fac</t>
         </is>
       </c>
-      <c r="F431" s="12" t="inlineStr"/>
-      <c r="G431" s="12" t="inlineStr"/>
-      <c r="H431" s="12" t="inlineStr"/>
-      <c r="I431" s="12" t="inlineStr"/>
-      <c r="J431" s="17" t="inlineStr">
+      <c r="F431" s="20" t="inlineStr"/>
+      <c r="G431" s="20" t="inlineStr"/>
+      <c r="H431" s="20" t="inlineStr"/>
+      <c r="I431" s="20" t="inlineStr"/>
+      <c r="J431" s="25" t="inlineStr">
         <is>
           <t>3133</t>
         </is>
       </c>
-      <c r="K431" s="12" t="inlineStr"/>
-      <c r="L431" s="12" t="inlineStr">
+      <c r="K431" s="20" t="inlineStr"/>
+      <c r="L431" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="12" t="inlineStr">
+      <c r="A432" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B432" s="13" t="inlineStr"/>
-      <c r="C432" s="12" t="inlineStr"/>
-      <c r="D432" s="12" t="inlineStr"/>
-      <c r="E432" s="15" t="inlineStr">
+      <c r="B432" s="21" t="inlineStr"/>
+      <c r="C432" s="20" t="inlineStr"/>
+      <c r="D432" s="20" t="inlineStr"/>
+      <c r="E432" s="23" t="inlineStr">
         <is>
           <t>PF Expenses Security-Fac</t>
         </is>
       </c>
-      <c r="F432" s="12" t="inlineStr"/>
-      <c r="G432" s="12" t="inlineStr"/>
-      <c r="H432" s="12" t="inlineStr"/>
-      <c r="I432" s="12" t="inlineStr"/>
-      <c r="J432" s="17" t="inlineStr">
+      <c r="F432" s="20" t="inlineStr"/>
+      <c r="G432" s="20" t="inlineStr"/>
+      <c r="H432" s="20" t="inlineStr"/>
+      <c r="I432" s="20" t="inlineStr"/>
+      <c r="J432" s="25" t="inlineStr">
         <is>
           <t>2153</t>
         </is>
       </c>
-      <c r="K432" s="12" t="inlineStr"/>
-      <c r="L432" s="12" t="inlineStr">
+      <c r="K432" s="20" t="inlineStr"/>
+      <c r="L432" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="12" t="inlineStr">
+      <c r="A433" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B433" s="13" t="inlineStr"/>
-      <c r="C433" s="12" t="inlineStr"/>
-      <c r="D433" s="12" t="inlineStr"/>
-      <c r="E433" s="15" t="inlineStr">
+      <c r="B433" s="21" t="inlineStr"/>
+      <c r="C433" s="20" t="inlineStr"/>
+      <c r="D433" s="20" t="inlineStr"/>
+      <c r="E433" s="23" t="inlineStr">
         <is>
           <t>PF Expenses Store-Fac</t>
         </is>
       </c>
-      <c r="F433" s="12" t="inlineStr"/>
-      <c r="G433" s="12" t="inlineStr"/>
-      <c r="H433" s="12" t="inlineStr"/>
-      <c r="I433" s="12" t="inlineStr"/>
-      <c r="J433" s="17" t="inlineStr">
+      <c r="F433" s="20" t="inlineStr"/>
+      <c r="G433" s="20" t="inlineStr"/>
+      <c r="H433" s="20" t="inlineStr"/>
+      <c r="I433" s="20" t="inlineStr"/>
+      <c r="J433" s="25" t="inlineStr">
         <is>
           <t>2605</t>
         </is>
       </c>
-      <c r="K433" s="12" t="inlineStr"/>
-      <c r="L433" s="12" t="inlineStr">
+      <c r="K433" s="20" t="inlineStr"/>
+      <c r="L433" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="12" t="inlineStr">
+      <c r="A434" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B434" s="13" t="inlineStr"/>
-      <c r="C434" s="12" t="inlineStr"/>
-      <c r="D434" s="12" t="inlineStr"/>
-      <c r="E434" s="15" t="inlineStr">
+      <c r="B434" s="21" t="inlineStr"/>
+      <c r="C434" s="20" t="inlineStr"/>
+      <c r="D434" s="20" t="inlineStr"/>
+      <c r="E434" s="23" t="inlineStr">
         <is>
           <t>PF Expenses VAT-Fac</t>
         </is>
       </c>
-      <c r="F434" s="12" t="inlineStr"/>
-      <c r="G434" s="12" t="inlineStr"/>
-      <c r="H434" s="12" t="inlineStr"/>
-      <c r="I434" s="12" t="inlineStr"/>
-      <c r="J434" s="17" t="inlineStr">
+      <c r="F434" s="20" t="inlineStr"/>
+      <c r="G434" s="20" t="inlineStr"/>
+      <c r="H434" s="20" t="inlineStr"/>
+      <c r="I434" s="20" t="inlineStr"/>
+      <c r="J434" s="25" t="inlineStr">
         <is>
           <t>14165</t>
         </is>
       </c>
-      <c r="K434" s="12" t="inlineStr"/>
-      <c r="L434" s="12" t="inlineStr">
+      <c r="K434" s="20" t="inlineStr"/>
+      <c r="L434" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="12" t="inlineStr">
+      <c r="A435" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B435" s="13" t="inlineStr"/>
-      <c r="C435" s="12" t="inlineStr"/>
-      <c r="D435" s="12" t="inlineStr"/>
-      <c r="E435" s="15" t="inlineStr">
+      <c r="B435" s="21" t="inlineStr"/>
+      <c r="C435" s="20" t="inlineStr"/>
+      <c r="D435" s="20" t="inlineStr"/>
+      <c r="E435" s="23" t="inlineStr">
         <is>
           <t>PF Expenses IT-Admin</t>
         </is>
       </c>
-      <c r="F435" s="12" t="inlineStr"/>
-      <c r="G435" s="12" t="inlineStr"/>
-      <c r="H435" s="12" t="inlineStr"/>
-      <c r="I435" s="12" t="inlineStr"/>
-      <c r="J435" s="17" t="inlineStr">
+      <c r="F435" s="20" t="inlineStr"/>
+      <c r="G435" s="20" t="inlineStr"/>
+      <c r="H435" s="20" t="inlineStr"/>
+      <c r="I435" s="20" t="inlineStr"/>
+      <c r="J435" s="25" t="inlineStr">
         <is>
           <t>1700</t>
         </is>
       </c>
-      <c r="K435" s="12" t="inlineStr"/>
-      <c r="L435" s="12" t="inlineStr">
+      <c r="K435" s="20" t="inlineStr"/>
+      <c r="L435" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="12" t="inlineStr">
+      <c r="A436" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B436" s="13" t="inlineStr"/>
-      <c r="C436" s="12" t="inlineStr"/>
-      <c r="D436" s="12" t="inlineStr"/>
-      <c r="E436" s="15" t="inlineStr">
+      <c r="B436" s="21" t="inlineStr"/>
+      <c r="C436" s="20" t="inlineStr"/>
+      <c r="D436" s="20" t="inlineStr"/>
+      <c r="E436" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Md.Shahidul Islam-ID-10013</t>
         </is>
       </c>
-      <c r="F436" s="12" t="inlineStr"/>
-      <c r="G436" s="12" t="inlineStr"/>
-      <c r="H436" s="12" t="inlineStr"/>
-      <c r="I436" s="12" t="inlineStr"/>
-      <c r="J436" s="12" t="inlineStr"/>
-      <c r="K436" s="17" t="inlineStr">
+      <c r="F436" s="20" t="inlineStr"/>
+      <c r="G436" s="20" t="inlineStr"/>
+      <c r="H436" s="20" t="inlineStr"/>
+      <c r="I436" s="20" t="inlineStr"/>
+      <c r="J436" s="20" t="inlineStr"/>
+      <c r="K436" s="25" t="inlineStr">
         <is>
           <t>140181</t>
         </is>
       </c>
-      <c r="L436" s="12" t="inlineStr">
+      <c r="L436" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="12" t="inlineStr">
+      <c r="A437" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B437" s="13" t="inlineStr"/>
-      <c r="C437" s="12" t="inlineStr"/>
-      <c r="D437" s="12" t="inlineStr"/>
-      <c r="E437" s="15" t="inlineStr">
+      <c r="B437" s="21" t="inlineStr"/>
+      <c r="C437" s="20" t="inlineStr"/>
+      <c r="D437" s="20" t="inlineStr"/>
+      <c r="E437" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Md.Mesbah Uddin-ID-10017</t>
         </is>
       </c>
-      <c r="F437" s="12" t="inlineStr"/>
-      <c r="G437" s="12" t="inlineStr"/>
-      <c r="H437" s="12" t="inlineStr"/>
-      <c r="I437" s="12" t="inlineStr"/>
-      <c r="J437" s="12" t="inlineStr"/>
-      <c r="K437" s="17" t="inlineStr">
+      <c r="F437" s="20" t="inlineStr"/>
+      <c r="G437" s="20" t="inlineStr"/>
+      <c r="H437" s="20" t="inlineStr"/>
+      <c r="I437" s="20" t="inlineStr"/>
+      <c r="J437" s="20" t="inlineStr"/>
+      <c r="K437" s="25" t="inlineStr">
         <is>
           <t>2741</t>
         </is>
       </c>
-      <c r="L437" s="12" t="inlineStr">
+      <c r="L437" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="12" t="inlineStr">
+      <c r="A438" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B438" s="13" t="inlineStr"/>
-      <c r="C438" s="12" t="inlineStr"/>
-      <c r="D438" s="12" t="inlineStr"/>
-      <c r="E438" s="15" t="inlineStr">
+      <c r="B438" s="21" t="inlineStr"/>
+      <c r="C438" s="20" t="inlineStr"/>
+      <c r="D438" s="20" t="inlineStr"/>
+      <c r="E438" s="23" t="inlineStr">
         <is>
           <t>Tax Payable- Md. Habibur Rahman-Fac-ID-10021</t>
         </is>
       </c>
-      <c r="F438" s="12" t="inlineStr"/>
-      <c r="G438" s="12" t="inlineStr"/>
-      <c r="H438" s="12" t="inlineStr"/>
-      <c r="I438" s="12" t="inlineStr"/>
-      <c r="J438" s="12" t="inlineStr"/>
-      <c r="K438" s="17" t="inlineStr">
+      <c r="F438" s="20" t="inlineStr"/>
+      <c r="G438" s="20" t="inlineStr"/>
+      <c r="H438" s="20" t="inlineStr"/>
+      <c r="I438" s="20" t="inlineStr"/>
+      <c r="J438" s="20" t="inlineStr"/>
+      <c r="K438" s="25" t="inlineStr">
         <is>
           <t>250</t>
         </is>
       </c>
-      <c r="L438" s="12" t="inlineStr">
+      <c r="L438" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="12" t="inlineStr">
+      <c r="A439" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B439" s="13" t="inlineStr"/>
-      <c r="C439" s="12" t="inlineStr"/>
-      <c r="D439" s="12" t="inlineStr"/>
-      <c r="E439" s="15" t="inlineStr">
+      <c r="B439" s="21" t="inlineStr"/>
+      <c r="C439" s="20" t="inlineStr"/>
+      <c r="D439" s="20" t="inlineStr"/>
+      <c r="E439" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-AKM Humayun Kabir-Tax-ID-10162</t>
         </is>
       </c>
-      <c r="F439" s="12" t="inlineStr"/>
-      <c r="G439" s="12" t="inlineStr"/>
-      <c r="H439" s="12" t="inlineStr"/>
-      <c r="I439" s="12" t="inlineStr"/>
-      <c r="J439" s="12" t="inlineStr"/>
-      <c r="K439" s="17" t="inlineStr">
+      <c r="F439" s="20" t="inlineStr"/>
+      <c r="G439" s="20" t="inlineStr"/>
+      <c r="H439" s="20" t="inlineStr"/>
+      <c r="I439" s="20" t="inlineStr"/>
+      <c r="J439" s="20" t="inlineStr"/>
+      <c r="K439" s="25" t="inlineStr">
         <is>
           <t>10692</t>
         </is>
       </c>
-      <c r="L439" s="12" t="inlineStr">
+      <c r="L439" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="12" t="inlineStr">
+      <c r="A440" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B440" s="13" t="inlineStr"/>
-      <c r="C440" s="12" t="inlineStr"/>
-      <c r="D440" s="12" t="inlineStr"/>
-      <c r="E440" s="15" t="inlineStr">
+      <c r="B440" s="21" t="inlineStr"/>
+      <c r="C440" s="20" t="inlineStr"/>
+      <c r="D440" s="20" t="inlineStr"/>
+      <c r="E440" s="23" t="inlineStr">
         <is>
           <t>Tax Payable- Md. Aslam Miah-ID-10332</t>
         </is>
       </c>
-      <c r="F440" s="12" t="inlineStr"/>
-      <c r="G440" s="12" t="inlineStr"/>
-      <c r="H440" s="12" t="inlineStr"/>
-      <c r="I440" s="12" t="inlineStr"/>
-      <c r="J440" s="12" t="inlineStr"/>
-      <c r="K440" s="17" t="inlineStr">
+      <c r="F440" s="20" t="inlineStr"/>
+      <c r="G440" s="20" t="inlineStr"/>
+      <c r="H440" s="20" t="inlineStr"/>
+      <c r="I440" s="20" t="inlineStr"/>
+      <c r="J440" s="20" t="inlineStr"/>
+      <c r="K440" s="25" t="inlineStr">
         <is>
           <t>272</t>
         </is>
       </c>
-      <c r="L440" s="12" t="inlineStr">
+      <c r="L440" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="12" t="inlineStr">
+      <c r="A441" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B441" s="13" t="inlineStr"/>
-      <c r="C441" s="12" t="inlineStr"/>
-      <c r="D441" s="12" t="inlineStr"/>
-      <c r="E441" s="15" t="inlineStr">
+      <c r="B441" s="21" t="inlineStr"/>
+      <c r="C441" s="20" t="inlineStr"/>
+      <c r="D441" s="20" t="inlineStr"/>
+      <c r="E441" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Mr.S.M.Rezwanul Kabir-ID-10378</t>
         </is>
       </c>
-      <c r="F441" s="12" t="inlineStr"/>
-      <c r="G441" s="12" t="inlineStr"/>
-      <c r="H441" s="12" t="inlineStr"/>
-      <c r="I441" s="12" t="inlineStr"/>
-      <c r="J441" s="12" t="inlineStr"/>
-      <c r="K441" s="17" t="inlineStr">
+      <c r="F441" s="20" t="inlineStr"/>
+      <c r="G441" s="20" t="inlineStr"/>
+      <c r="H441" s="20" t="inlineStr"/>
+      <c r="I441" s="20" t="inlineStr"/>
+      <c r="J441" s="20" t="inlineStr"/>
+      <c r="K441" s="25" t="inlineStr">
         <is>
           <t>2620</t>
         </is>
       </c>
-      <c r="L441" s="12" t="inlineStr">
+      <c r="L441" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="12" t="inlineStr">
+      <c r="A442" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B442" s="13" t="inlineStr"/>
-      <c r="C442" s="12" t="inlineStr"/>
-      <c r="D442" s="12" t="inlineStr"/>
-      <c r="E442" s="15" t="inlineStr">
+      <c r="B442" s="21" t="inlineStr"/>
+      <c r="C442" s="20" t="inlineStr"/>
+      <c r="D442" s="20" t="inlineStr"/>
+      <c r="E442" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Md. Shahidul Islam-VAT-10672</t>
         </is>
       </c>
-      <c r="F442" s="12" t="inlineStr"/>
-      <c r="G442" s="12" t="inlineStr"/>
-      <c r="H442" s="12" t="inlineStr"/>
-      <c r="I442" s="12" t="inlineStr"/>
-      <c r="J442" s="12" t="inlineStr"/>
-      <c r="K442" s="17" t="inlineStr">
+      <c r="F442" s="20" t="inlineStr"/>
+      <c r="G442" s="20" t="inlineStr"/>
+      <c r="H442" s="20" t="inlineStr"/>
+      <c r="I442" s="20" t="inlineStr"/>
+      <c r="J442" s="20" t="inlineStr"/>
+      <c r="K442" s="25" t="inlineStr">
         <is>
           <t>250</t>
         </is>
       </c>
-      <c r="L442" s="12" t="inlineStr">
+      <c r="L442" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="12" t="inlineStr">
+      <c r="A443" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B443" s="13" t="inlineStr"/>
-      <c r="C443" s="12" t="inlineStr"/>
-      <c r="D443" s="12" t="inlineStr"/>
-      <c r="E443" s="15" t="inlineStr">
+      <c r="B443" s="21" t="inlineStr"/>
+      <c r="C443" s="20" t="inlineStr"/>
+      <c r="D443" s="20" t="inlineStr"/>
+      <c r="E443" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Md. Ashaduzzaman-ID-10807</t>
         </is>
       </c>
-      <c r="F443" s="12" t="inlineStr"/>
-      <c r="G443" s="12" t="inlineStr"/>
-      <c r="H443" s="12" t="inlineStr"/>
-      <c r="I443" s="12" t="inlineStr"/>
-      <c r="J443" s="12" t="inlineStr"/>
-      <c r="K443" s="17" t="inlineStr">
+      <c r="F443" s="20" t="inlineStr"/>
+      <c r="G443" s="20" t="inlineStr"/>
+      <c r="H443" s="20" t="inlineStr"/>
+      <c r="I443" s="20" t="inlineStr"/>
+      <c r="J443" s="20" t="inlineStr"/>
+      <c r="K443" s="25" t="inlineStr">
         <is>
           <t>416</t>
         </is>
       </c>
-      <c r="L443" s="12" t="inlineStr">
+      <c r="L443" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="12" t="inlineStr">
+      <c r="A444" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B444" s="13" t="inlineStr"/>
-      <c r="C444" s="12" t="inlineStr"/>
-      <c r="D444" s="12" t="inlineStr"/>
-      <c r="E444" s="15" t="inlineStr">
+      <c r="B444" s="21" t="inlineStr"/>
+      <c r="C444" s="20" t="inlineStr"/>
+      <c r="D444" s="20" t="inlineStr"/>
+      <c r="E444" s="23" t="inlineStr">
         <is>
           <t>Tax Payable- Farhad Sikder-ID-10950</t>
         </is>
       </c>
-      <c r="F444" s="12" t="inlineStr"/>
-      <c r="G444" s="12" t="inlineStr"/>
-      <c r="H444" s="12" t="inlineStr"/>
-      <c r="I444" s="12" t="inlineStr"/>
-      <c r="J444" s="12" t="inlineStr"/>
-      <c r="K444" s="17" t="inlineStr">
+      <c r="F444" s="20" t="inlineStr"/>
+      <c r="G444" s="20" t="inlineStr"/>
+      <c r="H444" s="20" t="inlineStr"/>
+      <c r="I444" s="20" t="inlineStr"/>
+      <c r="J444" s="20" t="inlineStr"/>
+      <c r="K444" s="25" t="inlineStr">
         <is>
           <t>587</t>
         </is>
       </c>
-      <c r="L444" s="12" t="inlineStr">
+      <c r="L444" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="12" t="inlineStr">
+      <c r="A445" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B445" s="13" t="inlineStr"/>
-      <c r="C445" s="12" t="inlineStr"/>
-      <c r="D445" s="12" t="inlineStr"/>
-      <c r="E445" s="15" t="inlineStr">
+      <c r="B445" s="21" t="inlineStr"/>
+      <c r="C445" s="20" t="inlineStr"/>
+      <c r="D445" s="20" t="inlineStr"/>
+      <c r="E445" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Mr.Ashfaqur Rahman Bhuiyan- 11018</t>
         </is>
       </c>
-      <c r="F445" s="12" t="inlineStr"/>
-      <c r="G445" s="12" t="inlineStr"/>
-      <c r="H445" s="12" t="inlineStr"/>
-      <c r="I445" s="12" t="inlineStr"/>
-      <c r="J445" s="12" t="inlineStr"/>
-      <c r="K445" s="17" t="inlineStr">
+      <c r="F445" s="20" t="inlineStr"/>
+      <c r="G445" s="20" t="inlineStr"/>
+      <c r="H445" s="20" t="inlineStr"/>
+      <c r="I445" s="20" t="inlineStr"/>
+      <c r="J445" s="20" t="inlineStr"/>
+      <c r="K445" s="25" t="inlineStr">
         <is>
           <t>250</t>
         </is>
       </c>
-      <c r="L445" s="12" t="inlineStr">
+      <c r="L445" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="12" t="inlineStr">
+      <c r="A446" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B446" s="13" t="inlineStr"/>
-      <c r="C446" s="12" t="inlineStr"/>
-      <c r="D446" s="12" t="inlineStr"/>
-      <c r="E446" s="15" t="inlineStr">
+      <c r="B446" s="21" t="inlineStr"/>
+      <c r="C446" s="20" t="inlineStr"/>
+      <c r="D446" s="20" t="inlineStr"/>
+      <c r="E446" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Md. Arman Sarker-ID-11374</t>
         </is>
       </c>
-      <c r="F446" s="12" t="inlineStr"/>
-      <c r="G446" s="12" t="inlineStr"/>
-      <c r="H446" s="12" t="inlineStr"/>
-      <c r="I446" s="12" t="inlineStr"/>
-      <c r="J446" s="12" t="inlineStr"/>
-      <c r="K446" s="17" t="inlineStr">
+      <c r="F446" s="20" t="inlineStr"/>
+      <c r="G446" s="20" t="inlineStr"/>
+      <c r="H446" s="20" t="inlineStr"/>
+      <c r="I446" s="20" t="inlineStr"/>
+      <c r="J446" s="20" t="inlineStr"/>
+      <c r="K446" s="25" t="inlineStr">
         <is>
           <t>2297</t>
         </is>
       </c>
-      <c r="L446" s="12" t="inlineStr">
+      <c r="L446" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="12" t="inlineStr">
+      <c r="A447" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B447" s="13" t="inlineStr"/>
-      <c r="C447" s="12" t="inlineStr"/>
-      <c r="D447" s="12" t="inlineStr"/>
-      <c r="E447" s="15" t="inlineStr">
+      <c r="B447" s="21" t="inlineStr"/>
+      <c r="C447" s="20" t="inlineStr"/>
+      <c r="D447" s="20" t="inlineStr"/>
+      <c r="E447" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Mr.Muhammad Sahadat Hossain-11667</t>
         </is>
       </c>
-      <c r="F447" s="12" t="inlineStr"/>
-      <c r="G447" s="12" t="inlineStr"/>
-      <c r="H447" s="12" t="inlineStr"/>
-      <c r="I447" s="12" t="inlineStr"/>
-      <c r="J447" s="12" t="inlineStr"/>
-      <c r="K447" s="17" t="inlineStr">
+      <c r="F447" s="20" t="inlineStr"/>
+      <c r="G447" s="20" t="inlineStr"/>
+      <c r="H447" s="20" t="inlineStr"/>
+      <c r="I447" s="20" t="inlineStr"/>
+      <c r="J447" s="20" t="inlineStr"/>
+      <c r="K447" s="25" t="inlineStr">
         <is>
           <t>750</t>
         </is>
       </c>
-      <c r="L447" s="12" t="inlineStr">
+      <c r="L447" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="12" t="inlineStr">
+      <c r="A448" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B448" s="13" t="inlineStr"/>
-      <c r="C448" s="12" t="inlineStr"/>
-      <c r="D448" s="12" t="inlineStr"/>
-      <c r="E448" s="15" t="inlineStr">
+      <c r="B448" s="21" t="inlineStr"/>
+      <c r="C448" s="20" t="inlineStr"/>
+      <c r="D448" s="20" t="inlineStr"/>
+      <c r="E448" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Sumon Kumar Bhakta-CG Board-ID-11747</t>
         </is>
       </c>
-      <c r="F448" s="12" t="inlineStr"/>
-      <c r="G448" s="12" t="inlineStr"/>
-      <c r="H448" s="12" t="inlineStr"/>
-      <c r="I448" s="12" t="inlineStr"/>
-      <c r="J448" s="12" t="inlineStr"/>
-      <c r="K448" s="17" t="inlineStr">
+      <c r="F448" s="20" t="inlineStr"/>
+      <c r="G448" s="20" t="inlineStr"/>
+      <c r="H448" s="20" t="inlineStr"/>
+      <c r="I448" s="20" t="inlineStr"/>
+      <c r="J448" s="20" t="inlineStr"/>
+      <c r="K448" s="25" t="inlineStr">
         <is>
           <t>27408</t>
         </is>
       </c>
-      <c r="L448" s="12" t="inlineStr">
+      <c r="L448" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="12" t="inlineStr">
+      <c r="A449" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B449" s="13" t="inlineStr"/>
-      <c r="C449" s="12" t="inlineStr"/>
-      <c r="D449" s="12" t="inlineStr"/>
-      <c r="E449" s="15" t="inlineStr">
+      <c r="B449" s="21" t="inlineStr"/>
+      <c r="C449" s="20" t="inlineStr"/>
+      <c r="D449" s="20" t="inlineStr"/>
+      <c r="E449" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Md.Semul Hossain-ID-12193</t>
         </is>
       </c>
-      <c r="F449" s="12" t="inlineStr"/>
-      <c r="G449" s="12" t="inlineStr"/>
-      <c r="H449" s="12" t="inlineStr"/>
-      <c r="I449" s="12" t="inlineStr"/>
-      <c r="J449" s="12" t="inlineStr"/>
-      <c r="K449" s="17" t="inlineStr">
+      <c r="F449" s="20" t="inlineStr"/>
+      <c r="G449" s="20" t="inlineStr"/>
+      <c r="H449" s="20" t="inlineStr"/>
+      <c r="I449" s="20" t="inlineStr"/>
+      <c r="J449" s="20" t="inlineStr"/>
+      <c r="K449" s="25" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
       </c>
-      <c r="L449" s="12" t="inlineStr">
+      <c r="L449" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="12" t="inlineStr">
+      <c r="A450" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B450" s="13" t="inlineStr"/>
-      <c r="C450" s="12" t="inlineStr"/>
-      <c r="D450" s="12" t="inlineStr"/>
-      <c r="E450" s="15" t="inlineStr">
+      <c r="B450" s="21" t="inlineStr"/>
+      <c r="C450" s="20" t="inlineStr"/>
+      <c r="D450" s="20" t="inlineStr"/>
+      <c r="E450" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Mr.Bappy Sujon Biswas-ID-12221</t>
         </is>
       </c>
-      <c r="F450" s="12" t="inlineStr"/>
-      <c r="G450" s="12" t="inlineStr"/>
-      <c r="H450" s="12" t="inlineStr"/>
-      <c r="I450" s="12" t="inlineStr"/>
-      <c r="J450" s="12" t="inlineStr"/>
-      <c r="K450" s="17" t="inlineStr">
+      <c r="F450" s="20" t="inlineStr"/>
+      <c r="G450" s="20" t="inlineStr"/>
+      <c r="H450" s="20" t="inlineStr"/>
+      <c r="I450" s="20" t="inlineStr"/>
+      <c r="J450" s="20" t="inlineStr"/>
+      <c r="K450" s="25" t="inlineStr">
         <is>
           <t>416</t>
         </is>
       </c>
-      <c r="L450" s="12" t="inlineStr">
+      <c r="L450" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="12" t="inlineStr">
+      <c r="A451" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B451" s="13" t="inlineStr"/>
-      <c r="C451" s="12" t="inlineStr"/>
-      <c r="D451" s="12" t="inlineStr"/>
-      <c r="E451" s="15" t="inlineStr">
+      <c r="B451" s="21" t="inlineStr"/>
+      <c r="C451" s="20" t="inlineStr"/>
+      <c r="D451" s="20" t="inlineStr"/>
+      <c r="E451" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Ahmed Nure Habib-13262</t>
         </is>
       </c>
-      <c r="F451" s="12" t="inlineStr"/>
-      <c r="G451" s="12" t="inlineStr"/>
-      <c r="H451" s="12" t="inlineStr"/>
-      <c r="I451" s="12" t="inlineStr"/>
-      <c r="J451" s="12" t="inlineStr"/>
-      <c r="K451" s="17" t="inlineStr">
+      <c r="F451" s="20" t="inlineStr"/>
+      <c r="G451" s="20" t="inlineStr"/>
+      <c r="H451" s="20" t="inlineStr"/>
+      <c r="I451" s="20" t="inlineStr"/>
+      <c r="J451" s="20" t="inlineStr"/>
+      <c r="K451" s="25" t="inlineStr">
         <is>
           <t>1826</t>
         </is>
       </c>
-      <c r="L451" s="12" t="inlineStr">
+      <c r="L451" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="12" t="inlineStr">
+      <c r="A452" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B452" s="13" t="inlineStr"/>
-      <c r="C452" s="12" t="inlineStr"/>
-      <c r="D452" s="12" t="inlineStr"/>
-      <c r="E452" s="15" t="inlineStr">
+      <c r="B452" s="21" t="inlineStr"/>
+      <c r="C452" s="20" t="inlineStr"/>
+      <c r="D452" s="20" t="inlineStr"/>
+      <c r="E452" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Md. Moshiur Rahman-ID-13816</t>
         </is>
       </c>
-      <c r="F452" s="12" t="inlineStr"/>
-      <c r="G452" s="12" t="inlineStr"/>
-      <c r="H452" s="12" t="inlineStr"/>
-      <c r="I452" s="12" t="inlineStr"/>
-      <c r="J452" s="12" t="inlineStr"/>
-      <c r="K452" s="17" t="inlineStr">
+      <c r="F452" s="20" t="inlineStr"/>
+      <c r="G452" s="20" t="inlineStr"/>
+      <c r="H452" s="20" t="inlineStr"/>
+      <c r="I452" s="20" t="inlineStr"/>
+      <c r="J452" s="20" t="inlineStr"/>
+      <c r="K452" s="25" t="inlineStr">
         <is>
           <t>23812</t>
         </is>
       </c>
-      <c r="L452" s="12" t="inlineStr">
+      <c r="L452" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="12" t="inlineStr">
+      <c r="A453" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B453" s="13" t="inlineStr"/>
-      <c r="C453" s="12" t="inlineStr"/>
-      <c r="D453" s="12" t="inlineStr"/>
-      <c r="E453" s="15" t="inlineStr">
+      <c r="B453" s="21" t="inlineStr"/>
+      <c r="C453" s="20" t="inlineStr"/>
+      <c r="D453" s="20" t="inlineStr"/>
+      <c r="E453" s="23" t="inlineStr">
         <is>
           <t>Tax Payable- Md. Feroj Alam- 14491</t>
         </is>
       </c>
-      <c r="F453" s="12" t="inlineStr"/>
-      <c r="G453" s="12" t="inlineStr"/>
-      <c r="H453" s="12" t="inlineStr"/>
-      <c r="I453" s="12" t="inlineStr"/>
-      <c r="J453" s="12" t="inlineStr"/>
-      <c r="K453" s="17" t="inlineStr">
+      <c r="F453" s="20" t="inlineStr"/>
+      <c r="G453" s="20" t="inlineStr"/>
+      <c r="H453" s="20" t="inlineStr"/>
+      <c r="I453" s="20" t="inlineStr"/>
+      <c r="J453" s="20" t="inlineStr"/>
+      <c r="K453" s="25" t="inlineStr">
         <is>
           <t>1250</t>
         </is>
       </c>
-      <c r="L453" s="12" t="inlineStr">
+      <c r="L453" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="12" t="inlineStr">
+      <c r="A454" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B454" s="13" t="inlineStr"/>
-      <c r="C454" s="12" t="inlineStr"/>
-      <c r="D454" s="12" t="inlineStr"/>
-      <c r="E454" s="15" t="inlineStr">
+      <c r="B454" s="21" t="inlineStr"/>
+      <c r="C454" s="20" t="inlineStr"/>
+      <c r="D454" s="20" t="inlineStr"/>
+      <c r="E454" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Ms. Irina Petronela Constantinescu</t>
         </is>
       </c>
-      <c r="F454" s="12" t="inlineStr"/>
-      <c r="G454" s="12" t="inlineStr"/>
-      <c r="H454" s="12" t="inlineStr"/>
-      <c r="I454" s="12" t="inlineStr"/>
-      <c r="J454" s="12" t="inlineStr"/>
-      <c r="K454" s="17" t="inlineStr">
+      <c r="F454" s="20" t="inlineStr"/>
+      <c r="G454" s="20" t="inlineStr"/>
+      <c r="H454" s="20" t="inlineStr"/>
+      <c r="I454" s="20" t="inlineStr"/>
+      <c r="J454" s="20" t="inlineStr"/>
+      <c r="K454" s="25" t="inlineStr">
         <is>
           <t>53301</t>
         </is>
       </c>
-      <c r="L454" s="12" t="inlineStr">
+      <c r="L454" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="12" t="inlineStr">
+      <c r="A455" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B455" s="13" t="inlineStr"/>
-      <c r="C455" s="12" t="inlineStr"/>
-      <c r="D455" s="12" t="inlineStr"/>
-      <c r="E455" s="15" t="inlineStr">
+      <c r="B455" s="21" t="inlineStr"/>
+      <c r="C455" s="20" t="inlineStr"/>
+      <c r="D455" s="20" t="inlineStr"/>
+      <c r="E455" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Md.Sibat Islam-ID-15248</t>
         </is>
       </c>
-      <c r="F455" s="12" t="inlineStr"/>
-      <c r="G455" s="12" t="inlineStr"/>
-      <c r="H455" s="12" t="inlineStr"/>
-      <c r="I455" s="12" t="inlineStr"/>
-      <c r="J455" s="12" t="inlineStr"/>
-      <c r="K455" s="17" t="inlineStr">
+      <c r="F455" s="20" t="inlineStr"/>
+      <c r="G455" s="20" t="inlineStr"/>
+      <c r="H455" s="20" t="inlineStr"/>
+      <c r="I455" s="20" t="inlineStr"/>
+      <c r="J455" s="20" t="inlineStr"/>
+      <c r="K455" s="25" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
       </c>
-      <c r="L455" s="12" t="inlineStr">
+      <c r="L455" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="12" t="inlineStr">
+      <c r="A456" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B456" s="13" t="inlineStr"/>
-      <c r="C456" s="12" t="inlineStr"/>
-      <c r="D456" s="12" t="inlineStr"/>
-      <c r="E456" s="15" t="inlineStr">
+      <c r="B456" s="21" t="inlineStr"/>
+      <c r="C456" s="20" t="inlineStr"/>
+      <c r="D456" s="20" t="inlineStr"/>
+      <c r="E456" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Shahin Sharif-ID-15327</t>
         </is>
       </c>
-      <c r="F456" s="12" t="inlineStr"/>
-      <c r="G456" s="12" t="inlineStr"/>
-      <c r="H456" s="12" t="inlineStr"/>
-      <c r="I456" s="12" t="inlineStr"/>
-      <c r="J456" s="12" t="inlineStr"/>
-      <c r="K456" s="17" t="inlineStr">
+      <c r="F456" s="20" t="inlineStr"/>
+      <c r="G456" s="20" t="inlineStr"/>
+      <c r="H456" s="20" t="inlineStr"/>
+      <c r="I456" s="20" t="inlineStr"/>
+      <c r="J456" s="20" t="inlineStr"/>
+      <c r="K456" s="25" t="inlineStr">
         <is>
           <t>2116</t>
         </is>
       </c>
-      <c r="L456" s="12" t="inlineStr">
+      <c r="L456" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="12" t="inlineStr">
+      <c r="A457" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B457" s="13" t="inlineStr"/>
-      <c r="C457" s="12" t="inlineStr"/>
-      <c r="D457" s="12" t="inlineStr"/>
-      <c r="E457" s="15" t="inlineStr">
+      <c r="B457" s="21" t="inlineStr"/>
+      <c r="C457" s="20" t="inlineStr"/>
+      <c r="D457" s="20" t="inlineStr"/>
+      <c r="E457" s="23" t="inlineStr">
         <is>
           <t>Tax Payable-Mr.Syed Omar Faruk-ID-10048</t>
         </is>
       </c>
-      <c r="F457" s="12" t="inlineStr"/>
-      <c r="G457" s="12" t="inlineStr"/>
-      <c r="H457" s="12" t="inlineStr"/>
-      <c r="I457" s="12" t="inlineStr"/>
-      <c r="J457" s="12" t="inlineStr"/>
-      <c r="K457" s="17" t="inlineStr">
+      <c r="F457" s="20" t="inlineStr"/>
+      <c r="G457" s="20" t="inlineStr"/>
+      <c r="H457" s="20" t="inlineStr"/>
+      <c r="I457" s="20" t="inlineStr"/>
+      <c r="J457" s="20" t="inlineStr"/>
+      <c r="K457" s="25" t="inlineStr">
         <is>
           <t>250</t>
         </is>
       </c>
-      <c r="L457" s="12" t="inlineStr">
+      <c r="L457" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="12" t="inlineStr">
+      <c r="A458" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B458" s="13" t="inlineStr"/>
-      <c r="C458" s="12" t="inlineStr"/>
-      <c r="D458" s="12" t="inlineStr"/>
-      <c r="E458" s="15" t="inlineStr">
+      <c r="B458" s="21" t="inlineStr"/>
+      <c r="C458" s="20" t="inlineStr"/>
+      <c r="D458" s="20" t="inlineStr"/>
+      <c r="E458" s="23" t="inlineStr">
         <is>
           <t>Food Allowance Payable</t>
         </is>
       </c>
-      <c r="F458" s="12" t="inlineStr"/>
-      <c r="G458" s="12" t="inlineStr"/>
-      <c r="H458" s="12" t="inlineStr"/>
-      <c r="I458" s="12" t="inlineStr"/>
-      <c r="J458" s="12" t="inlineStr"/>
-      <c r="K458" s="17" t="inlineStr">
+      <c r="F458" s="20" t="inlineStr"/>
+      <c r="G458" s="20" t="inlineStr"/>
+      <c r="H458" s="20" t="inlineStr"/>
+      <c r="I458" s="20" t="inlineStr"/>
+      <c r="J458" s="20" t="inlineStr"/>
+      <c r="K458" s="25" t="inlineStr">
         <is>
           <t>6060</t>
         </is>
       </c>
-      <c r="L458" s="12" t="inlineStr">
+      <c r="L458" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="12" t="inlineStr">
+      <c r="A459" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B459" s="13" t="inlineStr"/>
-      <c r="C459" s="12" t="inlineStr"/>
-      <c r="D459" s="12" t="inlineStr"/>
-      <c r="E459" s="15" t="inlineStr">
+      <c r="B459" s="21" t="inlineStr"/>
+      <c r="C459" s="20" t="inlineStr"/>
+      <c r="D459" s="20" t="inlineStr"/>
+      <c r="E459" s="23" t="inlineStr">
         <is>
           <t>PF Payable-Company Contribution</t>
         </is>
       </c>
-      <c r="F459" s="12" t="inlineStr"/>
-      <c r="G459" s="12" t="inlineStr"/>
-      <c r="H459" s="12" t="inlineStr"/>
-      <c r="I459" s="12" t="inlineStr"/>
-      <c r="J459" s="12" t="inlineStr"/>
-      <c r="K459" s="17" t="inlineStr">
+      <c r="F459" s="20" t="inlineStr"/>
+      <c r="G459" s="20" t="inlineStr"/>
+      <c r="H459" s="20" t="inlineStr"/>
+      <c r="I459" s="20" t="inlineStr"/>
+      <c r="J459" s="20" t="inlineStr"/>
+      <c r="K459" s="25" t="inlineStr">
         <is>
           <t>104540</t>
         </is>
       </c>
-      <c r="L459" s="12" t="inlineStr">
+      <c r="L459" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="12" t="inlineStr">
+      <c r="A460" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B460" s="13" t="inlineStr"/>
-      <c r="C460" s="12" t="inlineStr"/>
-      <c r="D460" s="12" t="inlineStr"/>
-      <c r="E460" s="15" t="inlineStr">
+      <c r="B460" s="21" t="inlineStr"/>
+      <c r="C460" s="20" t="inlineStr"/>
+      <c r="D460" s="20" t="inlineStr"/>
+      <c r="E460" s="23" t="inlineStr">
         <is>
           <t>PF Payable-Employees Contribution</t>
         </is>
       </c>
-      <c r="F460" s="12" t="inlineStr"/>
-      <c r="G460" s="12" t="inlineStr"/>
-      <c r="H460" s="12" t="inlineStr"/>
-      <c r="I460" s="12" t="inlineStr"/>
-      <c r="J460" s="12" t="inlineStr"/>
-      <c r="K460" s="17" t="inlineStr">
+      <c r="F460" s="20" t="inlineStr"/>
+      <c r="G460" s="20" t="inlineStr"/>
+      <c r="H460" s="20" t="inlineStr"/>
+      <c r="I460" s="20" t="inlineStr"/>
+      <c r="J460" s="20" t="inlineStr"/>
+      <c r="K460" s="25" t="inlineStr">
         <is>
           <t>104540</t>
         </is>
       </c>
-      <c r="L460" s="12" t="inlineStr">
+      <c r="L460" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="12" t="inlineStr">
+      <c r="A461" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B461" s="13" t="inlineStr"/>
-      <c r="C461" s="12" t="inlineStr"/>
-      <c r="D461" s="12" t="inlineStr"/>
-      <c r="E461" s="15" t="inlineStr">
+      <c r="B461" s="21" t="inlineStr"/>
+      <c r="C461" s="20" t="inlineStr"/>
+      <c r="D461" s="20" t="inlineStr"/>
+      <c r="E461" s="23" t="inlineStr">
         <is>
           <t>Payable to Employees CPF</t>
         </is>
       </c>
-      <c r="F461" s="12" t="inlineStr"/>
-      <c r="G461" s="12" t="inlineStr"/>
-      <c r="H461" s="12" t="inlineStr"/>
-      <c r="I461" s="12" t="inlineStr"/>
-      <c r="J461" s="12" t="inlineStr"/>
-      <c r="K461" s="17" t="inlineStr">
+      <c r="F461" s="20" t="inlineStr"/>
+      <c r="G461" s="20" t="inlineStr"/>
+      <c r="H461" s="20" t="inlineStr"/>
+      <c r="I461" s="20" t="inlineStr"/>
+      <c r="J461" s="20" t="inlineStr"/>
+      <c r="K461" s="25" t="inlineStr">
         <is>
           <t>68357</t>
         </is>
       </c>
-      <c r="L461" s="12" t="inlineStr">
+      <c r="L461" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="12" t="inlineStr">
+      <c r="A462" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B462" s="13" t="inlineStr"/>
-      <c r="C462" s="12" t="inlineStr"/>
-      <c r="D462" s="12" t="inlineStr"/>
-      <c r="E462" s="15" t="inlineStr">
+      <c r="B462" s="21" t="inlineStr"/>
+      <c r="C462" s="20" t="inlineStr"/>
+      <c r="D462" s="20" t="inlineStr"/>
+      <c r="E462" s="23" t="inlineStr">
         <is>
           <t>Salary &amp; Allowance Payable</t>
         </is>
       </c>
-      <c r="F462" s="12" t="inlineStr"/>
-      <c r="G462" s="12" t="inlineStr"/>
-      <c r="H462" s="12" t="inlineStr"/>
-      <c r="I462" s="12" t="inlineStr"/>
-      <c r="J462" s="12" t="inlineStr"/>
-      <c r="K462" s="17" t="inlineStr">
+      <c r="F462" s="20" t="inlineStr"/>
+      <c r="G462" s="20" t="inlineStr"/>
+      <c r="H462" s="20" t="inlineStr"/>
+      <c r="I462" s="20" t="inlineStr"/>
+      <c r="J462" s="20" t="inlineStr"/>
+      <c r="K462" s="25" t="inlineStr">
         <is>
           <t>3218390</t>
         </is>
       </c>
-      <c r="L462" s="12" t="inlineStr">
+      <c r="L462" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="12" t="inlineStr">
+      <c r="A463" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B463" s="13" t="inlineStr">
+      <c r="B463" s="21" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 20733.00
 Borrower Amount: 20733.00</t>
         </is>
       </c>
-      <c r="C463" s="12" t="inlineStr"/>
-      <c r="D463" s="12" t="inlineStr"/>
-      <c r="E463" s="18" t="inlineStr">
+      <c r="C463" s="20" t="inlineStr"/>
+      <c r="D463" s="20" t="inlineStr"/>
+      <c r="E463" s="26" t="inlineStr">
         <is>
           <t>Provision made for Head Office &amp; Factory Management &amp; Non Management employees Salary, Deduction of tax, PF, Loan personal , PF Loan &amp; Food allowance  for the month of June-2025 as per HR approved sheet.</t>
         </is>
       </c>
-      <c r="F463" s="12" t="inlineStr"/>
-      <c r="G463" s="12" t="inlineStr"/>
-      <c r="H463" s="12" t="inlineStr"/>
-      <c r="I463" s="12" t="inlineStr"/>
-      <c r="J463" s="12" t="inlineStr"/>
-      <c r="K463" s="12" t="inlineStr"/>
-      <c r="L463" s="12" t="inlineStr">
+      <c r="F463" s="20" t="inlineStr"/>
+      <c r="G463" s="20" t="inlineStr"/>
+      <c r="H463" s="20" t="inlineStr"/>
+      <c r="I463" s="20" t="inlineStr"/>
+      <c r="J463" s="20" t="inlineStr"/>
+      <c r="K463" s="20" t="inlineStr"/>
+      <c r="L463" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="12" t="inlineStr">
+      <c r="A464" s="20" t="inlineStr">
         <is>
           <t>M065</t>
         </is>
       </c>
-      <c r="B464" s="13" t="inlineStr"/>
-      <c r="C464" s="12" t="inlineStr"/>
-      <c r="D464" s="12" t="inlineStr">
+      <c r="B464" s="21" t="inlineStr"/>
+      <c r="C464" s="20" t="inlineStr"/>
+      <c r="D464" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E464" s="19" t="inlineStr">
+      <c r="E464" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F464" s="12" t="inlineStr"/>
-      <c r="G464" s="12" t="inlineStr"/>
-      <c r="H464" s="12" t="inlineStr"/>
-      <c r="I464" s="12" t="inlineStr"/>
-      <c r="J464" s="12" t="inlineStr"/>
-      <c r="K464" s="12" t="inlineStr"/>
-      <c r="L464" s="12" t="inlineStr">
+      <c r="F464" s="20" t="inlineStr"/>
+      <c r="G464" s="20" t="inlineStr"/>
+      <c r="H464" s="20" t="inlineStr"/>
+      <c r="I464" s="20" t="inlineStr"/>
+      <c r="J464" s="20" t="inlineStr"/>
+      <c r="K464" s="20" t="inlineStr"/>
+      <c r="L464" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
